--- a/3.xlsx
+++ b/3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hassan Laptop Point\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="913">
   <si>
     <t>07810176</t>
   </si>
@@ -1413,13 +1413,1363 @@
   </si>
   <si>
     <t>07839897</t>
+  </si>
+  <si>
+    <t>CLINIQUE 3-STEP ALL ABOUT CL LIQ SOAP MILD 30 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE 3-STEP CLARIFYING LOTION 1 200 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE 3-STEP CLARIFYING LOTION 1 400 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE 3-STEP CLARIFYING LOTION 2 200 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE 3-STEP CLARIFYING LOTION 2 400 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE 3-STEP CLARIFYING LOTION 2 JUMBO 48 UNITS</t>
+  </si>
+  <si>
+    <t>CLINIQUE 3-STEP CLARIFYING LOTION 3 200 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE 3-STEP CLARIFYING LOTION 3 400 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE 3-STEP CLARIFYING LOTION 3 W/PUMP 4 UNITS</t>
+  </si>
+  <si>
+    <t>CLINIQUE 3-STEP CLARIFYING LOTION 4 200 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE 3-STEP CLARIFYING LOTION 4 400 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE 3-STEP DDM CLEARING JELLY 115 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE 3-STEP DDMG 50 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE 3-STEP DDMG PUMPE 125 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE 3-STEP DDMJ BASE 115 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE 3-STEP DDMJ CARTR LINES/WRINK 10 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE 3-STEP DDMJ CARTRIDGE FATIGUE 10 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE 3-STEP DDML BASE 115 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE 3-STEP DDML+ MIT PUMPE JUMBO 200 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE 3-STEP DRAMAT DIFF HYDRAT JELLY 125 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE 3-STEP DRAMAT DIFF MST LOT PUMPE 1 UNIT</t>
+  </si>
+  <si>
+    <t>CLINIQUE 3-STEP DRAMAT DIFF MST LOTION TB 50 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE 3-STEP JUMBO LIQ FAC SOAP OILY OS 40 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE 3-STEP LIQ FACIAL SOAP EXT MILD 200 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE 3-STEP LIQ FACIAL SOAP MILD 200 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE 3-STEP LIQ FACIAL SOAP OILY 200 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE 7 DAY SCRUB CREAM 100 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE ADVENT CALENDAR SET A 2023</t>
+  </si>
+  <si>
+    <t>CLINIQUE AIR BRUSH CONCEALER NO 01</t>
+  </si>
+  <si>
+    <t>CLINIQUE AIR BRUSH CONCEALER NO 02</t>
+  </si>
+  <si>
+    <t>CLINIQUE AIR BRUSH CONCEALER NO 04</t>
+  </si>
+  <si>
+    <t>CLINIQUE AIR BRUSH CONCEALER NO 05</t>
+  </si>
+  <si>
+    <t>CLINIQUE AIR BRUSH CONCEALER NO 06</t>
+  </si>
+  <si>
+    <t>CLINIQUE AIR BRUSH CONCEALER NO 20</t>
+  </si>
+  <si>
+    <t>CLINIQUE ALL ABOUT CLEAN 2IN1 150 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE ALL ABOUT CLEAN MASK 100 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE ALL ABOUT EYE CONC NO 01</t>
+  </si>
+  <si>
+    <t>CLINIQUE ALL ABOUT EYES 15 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE ALL ABOUT EYES RICH 15 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE ALL ABOUT EYES SET 2024 3 STK</t>
+  </si>
+  <si>
+    <t>CLINIQUE ALL ABOUT EYES VALUE SET (RE)</t>
+  </si>
+  <si>
+    <t>CLINIQUE ALL ABOUT SHADOW PRIMER MODER FA</t>
+  </si>
+  <si>
+    <t>CLINIQUE ALL ABOUT SHADOW PRIMER VERY F</t>
+  </si>
+  <si>
+    <t>CLINIQUE ALL ABOUT SHADOWS DUOS JEANS HEE</t>
+  </si>
+  <si>
+    <t>CLINIQUE ALL ABOUT SHADOWS DUOS LIKE MINK</t>
+  </si>
+  <si>
+    <t>CLINIQUE ALL ABOUT SHADOWS DUOS UPTOWN</t>
+  </si>
+  <si>
+    <t>CLINIQUE ALL ABOUT SHADOWS QUADS GALAXY</t>
+  </si>
+  <si>
+    <t>CLINIQUE ALL ABOUT SHADOWS QUADS GOING ST</t>
+  </si>
+  <si>
+    <t>CLINIQUE ALL ABOUT SHADOWS QUADS ON SAFAR</t>
+  </si>
+  <si>
+    <t>CLINIQUE ALL ABOUT SHADOWS QUADS PINK CHO</t>
+  </si>
+  <si>
+    <t>CLINIQUE ALL ABOUT SHADOWS SINGLE FRENCH</t>
+  </si>
+  <si>
+    <t>CLINIQUE ALL ABOUT SHADOWS SINGLE PORTOBE</t>
+  </si>
+  <si>
+    <t>CLINIQUE ALL IN ONE MICELL MILK I&amp;I 200 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE ALMOST LIPSTICK (RE) BLACK HONEY</t>
+  </si>
+  <si>
+    <t>CLINIQUE ALMOST LIPSTICK PINK HONEY</t>
+  </si>
+  <si>
+    <t>CLINIQUE ALMOST POWDER MAKEUP SPF15 DEEP</t>
+  </si>
+  <si>
+    <t>CLINIQUE ALMOST POWDER MAKEUP SPF15 LIGHT</t>
+  </si>
+  <si>
+    <t>CLINIQUE ALMOST POWDER MAKEUP SPF15 MEDI</t>
+  </si>
+  <si>
+    <t>CLINIQUE ALMOST POWDER MAKEUP SPF15 NEUT</t>
+  </si>
+  <si>
+    <t>CLINIQUE ANTI AGING SET 3 STK</t>
+  </si>
+  <si>
+    <t>CLINIQUE ANTI BL DEEP BRUSH HEAD 2 STK</t>
+  </si>
+  <si>
+    <t>CLINIQUE ANTI BL LIQUID MAKEUP ALABASTER 30</t>
+  </si>
+  <si>
+    <t>CLINIQUE ANTI BL LIQUID MAKEUP BEIGE 30 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE ANTI BL LIQUID MAKEUP IVORY 30 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE ANTI BL LIQUID MAKEUP NEUTRAL 30 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE ANTI BL LIQUID MAKEUP SAND 30 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE ANTI BL LIQUID MAKEUP VANILLA 30 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE ANTI BL SOL CL FOAM 125 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE ANTI BL SOL CLARIF LOTION 200 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE ANTI BL SOL CLEANSING MASK 100 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE ANTI BL SOL CLEAR CONC NO 02</t>
+  </si>
+  <si>
+    <t>CLINIQUE ANTI BL SOL CLEAR MOIST 50 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE ANTI BL SOL CLINIC CLEAR GEL 15 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE ANTI BL SOL CLINIC CLEAR GEL 30 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE ANTI BL SOL DEEP CL GEL 125 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE ANTI BLEMISH FDT REFORM NO CN10</t>
+  </si>
+  <si>
+    <t>CLINIQUE ANTI BLEMISH FDT REFORM NO CN28</t>
+  </si>
+  <si>
+    <t>CLINIQUE ANTI BLEMISH FDT REFORM NO CN52</t>
+  </si>
+  <si>
+    <t>CLINIQUE ANTI BLEMISH FDT REFORM NO CN58</t>
+  </si>
+  <si>
+    <t>CLINIQUE ANTI BLEMISH FDT REFORM NO CN70</t>
+  </si>
+  <si>
+    <t>CLINIQUE ANTI BLEMISH FDT REFORM NO CN74</t>
+  </si>
+  <si>
+    <t>CLINIQUE ANTI BLEMISH MINI KIT (RE)</t>
+  </si>
+  <si>
+    <t>CLINIQUE AROM ELIX DEO ROLL-ON 75 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE AROM ELIX PERFUME SPR 100 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE AROM ELIX SET B 2023 3 STK</t>
+  </si>
+  <si>
+    <t>CLINIQUE BB CREAM NO 04 40 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE BEYOND PERF PWD FDT&amp;CONC NO 06</t>
+  </si>
+  <si>
+    <t>CLINIQUE BEYOND PERF PWD FDT&amp;CONC NO 09</t>
+  </si>
+  <si>
+    <t>CLINIQUE BEYOND PERF PWD FDT&amp;CONC NO 15</t>
+  </si>
+  <si>
+    <t>CLINIQUE BEYOND PERFECTING FDT BREEZE</t>
+  </si>
+  <si>
+    <t>CLINIQUE BEYOND PERFECTING FDT BUTTERMILK</t>
+  </si>
+  <si>
+    <t>CLINIQUE BEYOND PERFECTING FDT LINEN</t>
+  </si>
+  <si>
+    <t>CLINIQUE BLACK SHORT 7DAY DEEP PORE 125 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE BLACKH SOULT SELFHEATING 20 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE BLENDED FACE POW TRANSP NO 2</t>
+  </si>
+  <si>
+    <t>CLINIQUE BLENDED FACE PWD TRANSP NO 3</t>
+  </si>
+  <si>
+    <t>CLINIQUE BLENDED FACE PWD TRANSP NO 4</t>
+  </si>
+  <si>
+    <t>CLINIQUE BLUSHING BLUSH NO 01</t>
+  </si>
+  <si>
+    <t>CLINIQUE BLUSHING BLUSH NO 07</t>
+  </si>
+  <si>
+    <t>CLINIQUE BLUSHING BLUSH NO 10</t>
+  </si>
+  <si>
+    <t>CLINIQUE BLUSHING BLUSH NO 15</t>
+  </si>
+  <si>
+    <t>CLINIQUE BLUSHING BLUSH NO 20</t>
+  </si>
+  <si>
+    <t>CLINIQUE BODY CARE A PERSP DEO ROLL-ON 75 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE BODY CARE DEEP COMFORT BODY BUT</t>
+  </si>
+  <si>
+    <t>CLINIQUE BODY CARE DEEP COMFORT BODY LOTI</t>
+  </si>
+  <si>
+    <t>CLINIQUE BODY CARE DEEP COMFORT BODY WAS</t>
+  </si>
+  <si>
+    <t>CLINIQUE BODY CARE DEEP COMFORT HAND CRE</t>
+  </si>
+  <si>
+    <t>CLINIQUE BODY CARE SKIN BODY EXFOL CREAM 2</t>
+  </si>
+  <si>
+    <t>CLINIQUE BODY CARE SKIN BODY EXFOLIATOR 200</t>
+  </si>
+  <si>
+    <t>CLINIQUE CALYX EDT VAPO 50 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE CHUBBY INT LIPBALM NO 08 STICK</t>
+  </si>
+  <si>
+    <t>CLINIQUE CHUBBY NUDE CS SCULPT CONT CURVY</t>
+  </si>
+  <si>
+    <t>CLINIQUE CHUBBY NUDE CS SCULPT HIGHL HEFTY</t>
+  </si>
+  <si>
+    <t>CLINIQUE BLUSHING BLUSH NO 02</t>
+  </si>
+  <si>
+    <t>CLINIQUE CHUBBY ST MOIST LIP BALM BOLD BRON</t>
+  </si>
+  <si>
+    <t>CLINIQUE CHUBBY ST MOIST LIP BALM BOUNT BLU</t>
+  </si>
+  <si>
+    <t>CLINIQUE CHUBBY ST MOIST LIP BALM BROAD BER</t>
+  </si>
+  <si>
+    <t>CLINIQUE CHUBBY ST MOIST LIP BALM CHUNKY CH</t>
+  </si>
+  <si>
+    <t>CLINIQUE CHUBBY ST MOIST LIP BALM CURV CAR</t>
+  </si>
+  <si>
+    <t>CLINIQUE CHUBBY ST MOIST LIP BALM GRAPED-UP</t>
+  </si>
+  <si>
+    <t>CLINIQUE CHUBBY ST MOIST LIP BALM MEGA MEL</t>
+  </si>
+  <si>
+    <t>CLINIQUE CHUBBY ST MOIST LIP BALM MIGHT MAR</t>
+  </si>
+  <si>
+    <t>CLINIQUE CHUBBY ST MOIST LIP BALM NO 09</t>
+  </si>
+  <si>
+    <t>CLINIQUE CHUBBY ST MOIST LIP BALM NO 11</t>
+  </si>
+  <si>
+    <t>CLINIQUE CHUBBY ST MOIST LIP BALM ROOMIEST</t>
+  </si>
+  <si>
+    <t>CLINIQUE CHUBBY ST MOIST LIP BALM SUPER STR</t>
+  </si>
+  <si>
+    <t>CLINIQUE CLARIFYING LOTION 1 0 200 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE CLARIFYING LOTION 1 0 400 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE CREAM SHAPER FOR EYES NO 01</t>
+  </si>
+  <si>
+    <t>CLINIQUE CREAM SHAPER FOR EYES NO 05</t>
+  </si>
+  <si>
+    <t>CLINIQUE DECORATED POP SET 5 STK</t>
+  </si>
+  <si>
+    <t>CLINIQUE DRAMATICALLY DIFFERENT LIPST ALL H</t>
+  </si>
+  <si>
+    <t>CLINIQUE DRAMATICALLY DIFFERENT LIPST BAREL</t>
+  </si>
+  <si>
+    <t>CLINIQUE DRAMATICALLY DIFFERENT LIPST BLUS</t>
+  </si>
+  <si>
+    <t>CLINIQUE DRAMATICALLY DIFFERENT LIPST CANO</t>
+  </si>
+  <si>
+    <t>CLINIQUE DRAMATICALLY DIFFERENT LIPST RASP</t>
+  </si>
+  <si>
+    <t>CLINIQUE DRAMATICALLY DIFFERENT LIPST RED A</t>
+  </si>
+  <si>
+    <t>CLINIQUE DRAMATICALLY DIFFERENT LIPST STRA</t>
+  </si>
+  <si>
+    <t>CLINIQUE EB ALL OVER PRIMER&amp;CORRECTOR APR</t>
+  </si>
+  <si>
+    <t>CLINIQUE EB ALL OVER PRIMER&amp;CORRECTOR PEA</t>
+  </si>
+  <si>
+    <t>CLINIQUE EB CLIN BRIGHT MOIST 50 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE EB CLINICAL SERUM FOUND CN10</t>
+  </si>
+  <si>
+    <t>CLINIQUE EB CLINICAL SERUM FOUND CN28</t>
+  </si>
+  <si>
+    <t>CLINIQUE EB CLINICAL SERUM FOUND CN52</t>
+  </si>
+  <si>
+    <t>CLINIQUE EB CLINICAL SERUM FOUND CN58</t>
+  </si>
+  <si>
+    <t>CLINIQUE EB CLINICAL SERUM FOUND CN70</t>
+  </si>
+  <si>
+    <t>CLINIQUE EB CLINICAL SERUM FOUND CN74</t>
+  </si>
+  <si>
+    <t>CLINIQUE EB CLINICAL SERUM FOUND CN90</t>
+  </si>
+  <si>
+    <t>CLINIQUE EB CLINICAL SERUM FOUND WN114</t>
+  </si>
+  <si>
+    <t>CLINIQUE EB DARK SPOT CORR &amp;INTERRUP 30 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE EB DARK SPOT CORR &amp;INTERRUP 50 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE EB LIGHT REFLECTING PRIMER 15 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE EB LIGHT REFLECTING PRIMER 30 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE EB PORE DEFYING PRIMER 15 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE EB PORE DEFYING PRIMER 30 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE EB REFRESH HYDRATING&amp;REP M UP CN</t>
+  </si>
+  <si>
+    <t>CLINIQUE EB REFRESH HYDRATING&amp;REP M UP GIN</t>
+  </si>
+  <si>
+    <t>CLINIQUE EB REFRESH HYDRATING&amp;REP M UP HO</t>
+  </si>
+  <si>
+    <t>CLINIQUE EB REFRESH HYDRATING&amp;REP M UP SA</t>
+  </si>
+  <si>
+    <t>CLINIQUE EB REFRESH HYDRATING&amp;REP M UP WN</t>
+  </si>
+  <si>
+    <t>CLINIQUE EVEN BETTER CLIN DARK SPOT CORR 30</t>
+  </si>
+  <si>
+    <t>CLINIQUE EVEN BETTER CONCEALER CN 10</t>
+  </si>
+  <si>
+    <t>CLINIQUE EVEN BETTER CONCEALER CN 28</t>
+  </si>
+  <si>
+    <t>CLINIQUE EVEN BETTER CONCEALER CN 52</t>
+  </si>
+  <si>
+    <t>CLINIQUE EVEN BETTER CONCEALER CN 58</t>
+  </si>
+  <si>
+    <t>CLINIQUE EVEN BETTER CONCEALER CN 70</t>
+  </si>
+  <si>
+    <t>CLINIQUE EVEN BETTER CONCEALER CN 74</t>
+  </si>
+  <si>
+    <t>CLINIQUE EVEN BETTER GLOW M UP SPF15 CN 02</t>
+  </si>
+  <si>
+    <t>CLINIQUE EVEN BETTER GLOW M UP SPF15 CN 10</t>
+  </si>
+  <si>
+    <t>CLINIQUE EVEN BETTER GLOW M UP SPF15 CN 58</t>
+  </si>
+  <si>
+    <t>CLINIQUE EVEN BETTER GLOW M UP SPF15 CN 62</t>
+  </si>
+  <si>
+    <t>CLINIQUE EVEN BETTER GLOW M UP SPF15 CN 90</t>
+  </si>
+  <si>
+    <t>CLINIQUE EVEN BETTER GLOW M UP SPF15 CN CH</t>
+  </si>
+  <si>
+    <t>CLINIQUE EVEN BETTER GLOW M UP SPF15 FAIR</t>
+  </si>
+  <si>
+    <t>CLINIQUE EVEN BETTER GLOW M UP SPF15 IVORY</t>
+  </si>
+  <si>
+    <t>CLINIQUE EVEN BETTER GLOW M UP SPF15 MERIN</t>
+  </si>
+  <si>
+    <t>CLINIQUE EVEN BETTER GLOW M UP SPF15 NEUTR</t>
+  </si>
+  <si>
+    <t>CLINIQUE EVEN BETTER GLOW M UP SPF15 VANILL</t>
+  </si>
+  <si>
+    <t>CLINIQUE EVEN BETTER GLOW M UP SPF15 WIN 30</t>
+  </si>
+  <si>
+    <t>CLINIQUE EVEN BETTER M UP SPF15 CASHEW</t>
+  </si>
+  <si>
+    <t>CLINIQUE EVEN BETTER M UP SPF15 CREAM CH</t>
+  </si>
+  <si>
+    <t>CLINIQUE EVEN BETTER M UP SPF15 CUSTARD</t>
+  </si>
+  <si>
+    <t>CLINIQUE EVEN BETTER M UP SPF15 DEEP HONEY</t>
+  </si>
+  <si>
+    <t>CLINIQUE EVEN BETTER M UP SPF15 FAIR</t>
+  </si>
+  <si>
+    <t>CLINIQUE EVEN BETTER M UP SPF15 PORC B</t>
+  </si>
+  <si>
+    <t>CLINIQUE EVEN BETTER M UP SPF15 SIENNA</t>
+  </si>
+  <si>
+    <t>CLINIQUE EVEN BETTER M UP SPF15 TOFFEE</t>
+  </si>
+  <si>
+    <t>CLINIQUE EVEN BETTER MAKE UP ALABASTER 30</t>
+  </si>
+  <si>
+    <t>CLINIQUE EVEN BETTER MAKE UP AMBER 30 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE EVEN BETTER MAKE UP BEIGE 30 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE EVEN BETTER MAKE UP BUFF 30 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE EVEN BETTER MAKE UP GOLD NEUT 30 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE EVEN BETTER MAKE UP HONEY 30 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE EVEN BETTER MAKE UP IVORY 30 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE EVEN BETTER MAKE UP NEUTRAL 30 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE EVEN BETTER MAKE UP NUTTY 30 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE EVEN BETTER MAKE UP SAND 30 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE EVEN BETTER MAKE UP VANILLA 30 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE EXFOLIATING SCRUB 100 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE EYE SET 4 STK</t>
+  </si>
+  <si>
+    <t>CLINIQUE FACE POWDER AND BRUSH NO 02 35 G</t>
+  </si>
+  <si>
+    <t>CLINIQUE FATIQUE SET 2023 3 STK</t>
+  </si>
+  <si>
+    <t>CLINIQUE FOAMING FACIAL SOAP 150 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE FRESH PRESS DAILY BOOST 34 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE FRESH PRESS PWD CLEANS VIT C 28 ST</t>
+  </si>
+  <si>
+    <t>CLINIQUE GENTLE EYE MAKEUP REMOVER 75 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE EVEN BETTER M UP SPF15 OAT</t>
+  </si>
+  <si>
+    <t>CLINIQUE FATIQUE SET  3 STK</t>
+  </si>
+  <si>
+    <t>CLINIQUE GRAB &amp; GO SET A</t>
+  </si>
+  <si>
+    <t>CLINIQUE HAPPY SPIR COCOA&amp;CASHMR EDP SPR</t>
+  </si>
+  <si>
+    <t>CLINIQUE HAPPY SPIR PEONY PICNIC EDP SPR 100</t>
+  </si>
+  <si>
+    <t>CLINIQUE HIGH IMP CURLING MASC NO 01</t>
+  </si>
+  <si>
+    <t>CLINIQUE HIGH IMP EXTR VOL MASC NO 01</t>
+  </si>
+  <si>
+    <t>CLINIQUE HIGH IMP LASH AMPLI SERUM BLOO-01</t>
+  </si>
+  <si>
+    <t>CLINIQUE HIGH IMP LASH ELEVATING MASC BLACK</t>
+  </si>
+  <si>
+    <t>CLINIQUE HIGH IMP ZERO GRAVITY MASC BLACK</t>
+  </si>
+  <si>
+    <t>CLINIQUE HIGH IMPACT CUSTOM KAJAL NO 01</t>
+  </si>
+  <si>
+    <t>CLINIQUE HIGH IMPACT EASY LIQ DEEP ESPRESS</t>
+  </si>
+  <si>
+    <t>CLINIQUE HIGH IMPACT EASY LIQ BLACK</t>
+  </si>
+  <si>
+    <t>CLINIQUE HIGH IMPACT GEL TECH EYEL BLACK</t>
+  </si>
+  <si>
+    <t>CLINIQUE HIGH IMPACT HIFI MASC SET 2024 3 STK</t>
+  </si>
+  <si>
+    <t>CLINIQUE HIGH IMPACT HIGH FI MASC BLACK</t>
+  </si>
+  <si>
+    <t>CLINIQUE HIGH IMPACT HIGH FI MASC BLACK/BRO</t>
+  </si>
+  <si>
+    <t>CLINIQUE HIGH IMPACT MASCARA NO 01</t>
+  </si>
+  <si>
+    <t>CLINIQUE HIGH IMPACT MASCARA NO 02</t>
+  </si>
+  <si>
+    <t>CLINIQUE HIGH IMPACT MASCARA SET B (RE)</t>
+  </si>
+  <si>
+    <t>CLINIQUE HIGH IMPACT SHADOW + DEFINER CAFE</t>
+  </si>
+  <si>
+    <t>CLINIQUE HIGH IMPACT SHADOW + DEFINER CHAM</t>
+  </si>
+  <si>
+    <t>CLINIQUE HIGH IMPACT SHADOW + DEFINER DAY+</t>
+  </si>
+  <si>
+    <t>CLINIQUE HIGH IMPACT SHADOW + DEFINER DOUX</t>
+  </si>
+  <si>
+    <t>CLINIQUE HIGH IMPACT SHADOW + DEFINER FLAM</t>
+  </si>
+  <si>
+    <t>CLINIQUE HIGH IMPACT SHADOW + DEFINER MIXE</t>
+  </si>
+  <si>
+    <t>CLINIQUE HIGH IMPACT SHADOW + DEFINER ROSE</t>
+  </si>
+  <si>
+    <t>CLINIQUE HIGH IMPACT SHADOW + DEFINER ROYA</t>
+  </si>
+  <si>
+    <t>CLINIQUE HIGH IMPACT SHADOW + DEFINER RUM+</t>
+  </si>
+  <si>
+    <t>CLINIQUE HIGH IMPACT SHADOW + DEFINER STRA</t>
+  </si>
+  <si>
+    <t>CLINIQUE HIGH IMPACT WTP MASCARA BLACK</t>
+  </si>
+  <si>
+    <t>CLINIQUE HIGH IMPACT WTP MASCARA BLACK/BR</t>
+  </si>
+  <si>
+    <t>CLINIQUE HIGH IMPACT MASCARA SET 2024 3 STK</t>
+  </si>
+  <si>
+    <t>CLINIQUE ID BB BASE 115 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE ID BB TUBE 50 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE INV STAY MATT PR POWDER NO 01</t>
+  </si>
+  <si>
+    <t>CLINIQUE JUST BROWSING BRUSH ON NO 03</t>
+  </si>
+  <si>
+    <t>CLINIQUE LASH BUILD PRIMER MASCARA</t>
+  </si>
+  <si>
+    <t>CLINIQUE LASH POWER MASCARA BLACK</t>
+  </si>
+  <si>
+    <t>CLINIQUE LASH POWER MASCARA DARK CHOC</t>
+  </si>
+  <si>
+    <t>CLINIQUE LASH POWER MASCARA SET (RE)</t>
+  </si>
+  <si>
+    <t>CLINIQUE LASH POWER MASCARA SET 2024 3 STK</t>
+  </si>
+  <si>
+    <t>CLINIQUE MEN A PERSP DEO STICK 75 G</t>
+  </si>
+  <si>
+    <t>CLINIQUE MEN AGE REPAIR SET 3 STK</t>
+  </si>
+  <si>
+    <t>CLINIQUE MEN ALOE SHAVE GEL 125 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE MEN ANTI AGE EYE CREAM 15 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE MEN ANTI AGE MOISTUR (RE) 100 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE MEN EXFOLIATING TONIC 200 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE MEN FACE SCRUB 100 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE MEN FACE WASH 200 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE MEN MAXIMUM ENERG MST SPF40 50 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE MEN MAXIMUM HYDRATOR 72H 50 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE MEN MAXIMUM HYDRATOR EYE 15 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE MEN MAXIMUM HYDRATOR WATER GEL</t>
+  </si>
+  <si>
+    <t>CLINIQUE MEN POST SHAVE SOOTHER 75 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE MEN EVEN BETTER KIT 3 STK</t>
+  </si>
+  <si>
+    <t>CLINIQUE MINI SMART KIT 3 STK</t>
+  </si>
+  <si>
+    <t>CLINIQUE MKP BRUSH FDT BRUSH BUFF SH</t>
+  </si>
+  <si>
+    <t>CLINIQUE MKP BRUSH MAKEUP BRUSH CLEANSER</t>
+  </si>
+  <si>
+    <t>CLINIQUE MKP BRUSH POWDER BRUSH</t>
+  </si>
+  <si>
+    <t>CLINIQUE MKP BRUSH POWDER FOUND BRUSH</t>
+  </si>
+  <si>
+    <t>CLINIQUE MOIST S 72H LIPID REPL HYDR 50 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE MOIST SURGE 72H LIP HYDR 75 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE MOIST SURGE EYE 96H HYDRO F 15 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE MOIST SURGE HYDR SUPERCHARG 50 M</t>
+  </si>
+  <si>
+    <t>CLINIQUE MOIST SURGE INT VALUE (RE) 3 STK</t>
+  </si>
+  <si>
+    <t>CLINIQUE MOIST SURGE LIP HYDRATOR 10 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE MOIST SURGE OVERN MASK 100 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE MOIST SURGE SHEERTINT HYDR SPF2 N</t>
+  </si>
+  <si>
+    <t>CLINIQUE MOIST SURGE SPF SET 2024 3 STK</t>
+  </si>
+  <si>
+    <t>CLINIQUE MOIST SURGE VALUE SET A (RE)</t>
+  </si>
+  <si>
+    <t>CLINIQUE MOISTURE SURGE 100H 50 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE MOISTURE SURGE 100H 75 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE MOISTURE SURGE FACE SPR 125 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE MOISTURE SURGE FACE SPR 30 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE MOISTURE SURGE SET C 2024 3 STK</t>
+  </si>
+  <si>
+    <t>CLINIQUE MOISTURE SURGE SPF25 30 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE MOISTURE SURGE SPF25 50 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP LIP COLOUR &amp; PRIMER NO 02</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP LIP COLOUR &amp; PRIMER NO 03</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP LIP COLOUR &amp; PRIMER NO 04</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP LIP COLOUR &amp; PRIMER NO 05</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP LIP COLOUR &amp; PRIMER NO 06</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP LIP COLOUR &amp; PRIMER NO 07</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP LIP COLOUR &amp; PRIMER NO 08</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP LIP COLOUR &amp; PRIMER NO 09</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP LIP COLOUR &amp; PRIMER NO 10</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP LIP COLOUR &amp; PRIMER NO 11</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP LIP COLOUR &amp; PRIMER NO 12</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP LIP COLOUR &amp; PRIMER NO 13</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP LIP COLOUR &amp; PRIMER NO 18</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP LIP COLOUR &amp; PRIMER NO 21</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP LIP COLOUR &amp; PRIMER NO 23</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP LIP COLOUR &amp; PRIMER NO 24</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP LONGWEAR LIPST MATTE BLUSHIN</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP LONGWEAR LIPST MATTE CHILLI PO</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP LONGWEAR LIPST MATTE ICON POP</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP LONGWEAR LIPST MATTE LATTE PO</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP LONGWEAR LIPST MATTE PETAL PO</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP LONGWEAR LIPST MATTE ROSE PO</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP LONGWEAR LIPST MATTE RUBY PO</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP LONGWEAR LIPST SATIN BEIGE PO</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP LONGWEAR LIPST SATIN COLA PO</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP LONGWEAR LIPST SATIN CONFETTI</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP LONGWEAR LIPST SATIN CUTE POP</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP LONGWEAR LIPST SATIN DISCO PO</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP LONGWEAR LIPST SATIN MOCHA P</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP LONGWEAR LIPST SATIN PETAL PO</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP LONGWEAR LIPST SATIN PONY PO</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP LONGWEAR LIPST SHINE BARE POP</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP LONGWEAR LIPST SHINE BLUSH PO</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP LONGWEAR LIPST SHINE MELON PO</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP LONGWEAR LIPST SHINE LOVE POP</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP LONGWEAR LIPST SHINE NUDE POP</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP LONGWEAR LIPST SHINE PLUM POP</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP LONGWEAR LIPST SHINE MELON POP</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP LONGWEAR LIPST SHINE SWEET PO</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP MATTE NO 01</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP MATTE NO 02</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP MATTE NO 04</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP MATTE NO 05</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP MATTE NO 06</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP MATTE NO 07</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP MATTE NO 08</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP MATTE NO 09</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP MATTE NO 10</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP MATTE NO 11</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP MATTE NO 13</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP MATTE NO 14</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP MATTE NO 15</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP PLUSH CR LIPGLOSS AIRKISS</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP PLUSH CR LIPGLOSS BLACK HON</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP PLUSH CR LIPGLOSS BRULEE</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP PLUSH CR LIPGLOSS BUBBLEGUM</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP PLUSH CR LIPGLOSS CHIFFON</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP PLUSH CR LIPGLOSS JUICY APPLE</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP PLUSH CR LIPGLOSS ROSEWATER</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP PLUSH CR LIPGLOSS STRAWBERRY</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP SPLASH AIR KISS</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP SPLASH JUICY APPLE</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP SPLASH PINOT</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP SPLASH ROSEWATER</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP SPLASH SORBET</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP SPLASH SPRITZ</t>
+  </si>
+  <si>
+    <t>CLINIQUE POP SPLASH TENDERHEART</t>
+  </si>
+  <si>
+    <t>CLINIQUE PRETTY EASY LIQ EYELINER PEN BLACK</t>
+  </si>
+  <si>
+    <t>CLINIQUE PRETTY EASY LIQ EYELINER PEN BROW</t>
+  </si>
+  <si>
+    <t>CLINIQUE PWP BLOCKBUSTER SET C 2024 10 STK</t>
+  </si>
+  <si>
+    <t>CLINIQUE QUICK LINER FOR EYES INTENSE INT CL</t>
+  </si>
+  <si>
+    <t>CLINIQUE QUICK LINER FOR EYES INTENSE INT EB</t>
+  </si>
+  <si>
+    <t>CLINIQUE QUICK LINER FOR EYES INTENSE INT PE</t>
+  </si>
+  <si>
+    <t>CLINIQUE QUICK LINER FOR EYES INTENSE INT EN</t>
+  </si>
+  <si>
+    <t>CLINIQUE QUICK LINER FOR EYES INTENSE INTEN</t>
+  </si>
+  <si>
+    <t>CLINIQUE QUICKLINER EYES NO 02</t>
+  </si>
+  <si>
+    <t>CLINIQUE QUICKLINER EYES NO 03</t>
+  </si>
+  <si>
+    <t>CLINIQUE QUICKLINER EYES NO 07</t>
+  </si>
+  <si>
+    <t>CLINIQUE QUICKLINER EYES NO 08</t>
+  </si>
+  <si>
+    <t>CLINIQUE QUICKLINER FOR BROWS DARK ESPRES</t>
+  </si>
+  <si>
+    <t>CLINIQUE QUICKLINER FOR BROWS DEEP BROWN</t>
+  </si>
+  <si>
+    <t>CLINIQUE QUICKLINER FOR BROWS EBONY</t>
+  </si>
+  <si>
+    <t>CLINIQUE QUICKLINER FOR BROWS SANDY BLOND</t>
+  </si>
+  <si>
+    <t>CLINIQUE QUICKLINER FOR BROWS SOFT BROWN</t>
+  </si>
+  <si>
+    <t>CLINIQUE QUICKLINER FOR BROWS SOFT CHEST</t>
+  </si>
+  <si>
+    <t>CLINIQUE QUICKLINER FOR BROWS SOFT ROSE</t>
+  </si>
+  <si>
+    <t>CLINIQUE QUICKLINER FOR LIPS COCOA ROSE</t>
+  </si>
+  <si>
+    <t>CLINIQUE QUICKLINER FOR LIPS INTENSE NO 03</t>
+  </si>
+  <si>
+    <t>CLINIQUE QUICKLINER FOR LIPS INTENSE NO 04</t>
+  </si>
+  <si>
+    <t>CLINIQUE QUICKLINER FOR LIPS INTENSE NO 05</t>
+  </si>
+  <si>
+    <t>CLINIQUE QUICKLINER FOR LIPS INTENSE NO 06</t>
+  </si>
+  <si>
+    <t>CLINIQUE QUICKLINER FOR LIPS INTENSE NO 09</t>
+  </si>
+  <si>
+    <t>CLINIQUE QUICKLINER FOR LIPS INTENSE NO 11</t>
+  </si>
+  <si>
+    <t>CLINIQUE QUICKLINER FOR LIPS NO 01</t>
+  </si>
+  <si>
+    <t>CLINIQUE QUICKLINER FOR LIPS NO 05</t>
+  </si>
+  <si>
+    <t>CLINIQUE QUICKLINER FOR LIPS NO 07</t>
+  </si>
+  <si>
+    <t>CLINIQUE QUICKLINER FOR LIPS NO 09</t>
+  </si>
+  <si>
+    <t>CLINIQUE QUICKLINER FOR LIPS NO 33</t>
+  </si>
+  <si>
+    <t>CLINIQUE QUICKLINER FOR LIPS NO 36</t>
+  </si>
+  <si>
+    <t>CLINIQUE QUICKLINER FOR LIPS NO 48</t>
+  </si>
+  <si>
+    <t>CLINIQUE RED SOL DAILY PROT BASE SPF15 40 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE RED SOL DAILY RELIEF CREAM 50 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE RED SOL RELIEF MIN PR POWDER NO 01</t>
+  </si>
+  <si>
+    <t>CLINIQUE RED SOL SOOTHING CLEANSER 150 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE REPAIRWEAR INTENS LIP TREATMENT 4.</t>
+  </si>
+  <si>
+    <t>CLINIQUE REPAIRWEAR LASER FOCUS WR CORR E</t>
+  </si>
+  <si>
+    <t>CLINIQUE REPAIRWEAR SCULPTING NIGHT CREAM</t>
+  </si>
+  <si>
+    <t>CLINIQUE RINSE OFF EYE M UP SOLVENT 125 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE RINSE OFF FOAMING CLEANSER 150 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE SMART CLIN REP LIFT F&amp;N CR 50 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE SMART CLIN REP WRIN CR SPF30 50 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE SMART CLIN REP WRIN CR SPF30 75 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE SMART CLIN WRIN REP CR LIGHT/DC</t>
+  </si>
+  <si>
+    <t>CLINIQUE SMART CLIN WRIN REP CR RICH/WD</t>
+  </si>
+  <si>
+    <t>CLINIQUE SMART CLINICAL REPAIR SERUM 30 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE SMART CLINIAL REPAIR SERUM 50 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE SMART CLINICAL M D RESCULPT 50 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE SMART CLINICAL M D REVOL 50 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE SMART CLINICAL REPAIR EYE 15 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE SMART CLINICAL REPAIR EYE 30 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE SMART MOISTURIZER SET A 2024 3 STK</t>
+  </si>
+  <si>
+    <t>CLINIQUE SMART NIGHT CLINIC MD RETIN 30 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE SMART NIGHT MOIST CO 50 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE SMART NIGHT MOIST DC 50 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE SMART REP OVERNIGHT CR +MASK 50 M</t>
+  </si>
+  <si>
+    <t>CLINIQUE SMART SERUM SET A 2024 3 STK</t>
+  </si>
+  <si>
+    <t>CLINIQUE SMART SERUM VALUE SET A+ 3 STK</t>
+  </si>
+  <si>
+    <t>CLINIQUE SMART SPF CUST REPAIR VD 50 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE SMART SPF CUSTOM REPAIR 50 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE SMART SPF15 MOIST DAY CO 50 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE STAY MATTE PRESSED POWD NO 01</t>
+  </si>
+  <si>
+    <t>CLINIQUE STAY MATTE PRESSED POWD NO 02</t>
+  </si>
+  <si>
+    <t>CLINIQUE STAY MATTE PRESSED POWD NO 03</t>
+  </si>
+  <si>
+    <t>CLINIQUE STAY MATTE PRESSED POWD NO 04</t>
+  </si>
+  <si>
+    <t>CLINIQUE STAY MATTE PRESSED POWD NO 17</t>
+  </si>
+  <si>
+    <t>CLINIQUE SUN AFTER SUN RESCUE BALM ALOE 30</t>
+  </si>
+  <si>
+    <t>CLINIQUE SUN SPF 30 BODY CREAM 150 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE SUN SPF 40 FACE CREAM 50 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE SUN SPF30 A WRINKLE FACE CREAM 50</t>
+  </si>
+  <si>
+    <t>CLINIQUE SUN SUPERDEFENSE CITY BLOCK SPF50</t>
+  </si>
+  <si>
+    <t>CLINIQUE SUPER POWDER MATTE NO 02</t>
+  </si>
+  <si>
+    <t>CLINIQUE SUPER POWDER MATTE NO 04</t>
+  </si>
+  <si>
+    <t>CLINIQUE SUPER POWDER MATTE NO 07</t>
+  </si>
+  <si>
+    <t>CLINIQUE SUPERBALANCED MAKEUP CN10</t>
+  </si>
+  <si>
+    <t>CLINIQUE SUPERBALANCED MAKEUP CN13,5</t>
+  </si>
+  <si>
+    <t>CLINIQUE SUPERBALANCED MAKEUP CN40</t>
+  </si>
+  <si>
+    <t>CLINIQUE SUPERBALANCED MAKEUP CN42</t>
+  </si>
+  <si>
+    <t>CLINIQUE SUPERBALANCED MAKEUP CN70</t>
+  </si>
+  <si>
+    <t>CLINIQUE SUPERBALANCED MAKEUP CN90</t>
+  </si>
+  <si>
+    <t>CLINIQUE SUPERBALANCED MAKEUP WN19</t>
+  </si>
+  <si>
+    <t>CLINIQUE SUPERBALANCED MAKEUP CN28</t>
+  </si>
+  <si>
+    <t>CLINIQUE SUPERBALANCED MAKEUP CN 62</t>
+  </si>
+  <si>
+    <t>CLINIQUE SUPERBALANCED MAKEUP CN63.5</t>
+  </si>
+  <si>
+    <t>CLINIQUE SUPERBALANCED MAKEUP WN114</t>
+  </si>
+  <si>
+    <t>CLINIQUE SUPERDEF NIGHT 1/2 50 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE SUPERDEF NIGHT 3/4 50 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE SUPERDEF SPF25 FATIQUE 1/2 50 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE SUPERDEF SPF25 FATIQUE 3/4 50 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE SUPERDEF SPF40 FATIQUE 50 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE SUPERPRIMER UNIV FACE PRIMER 30 M</t>
+  </si>
+  <si>
+    <t>CLINIQUE TAKE THE DAY OFF 125 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE TAKE THE DAY OFF CL BALM 125 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE TAKE THE DAY OFF CL OIL 200 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE TAKE THE DAY OFF JUMBO 200 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE TAKE THE DAY OFF LLL 50 ML</t>
+  </si>
+  <si>
+    <t>CLINIQUE TTDO CHARCOAL BALM 125 ML</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1432,6 +2782,11 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1454,7 +2809,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1466,6 +2821,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1747,18 +3105,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C464"/>
+  <dimension ref="A1:D464"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A444" workbookViewId="0">
+      <selection activeCell="K451" sqref="K451"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1768,8 +3126,11 @@
       <c r="C1" s="6">
         <v>19.8</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1779,8 +3140,11 @@
       <c r="C2" s="6">
         <v>68</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1790,8 +3154,11 @@
       <c r="C3" s="6">
         <v>168</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1801,8 +3168,11 @@
       <c r="C4" s="6">
         <v>102</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1812,8 +3182,11 @@
       <c r="C5" s="6">
         <v>112</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1823,8 +3196,11 @@
       <c r="C6" s="6">
         <v>236</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1834,8 +3210,11 @@
       <c r="C7" s="6">
         <v>68</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1845,8 +3224,11 @@
       <c r="C8" s="6">
         <v>112</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1856,8 +3238,11 @@
       <c r="C9" s="6">
         <v>54.41</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1867,8 +3252,11 @@
       <c r="C10" s="6">
         <v>102</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1878,8 +3266,11 @@
       <c r="C11" s="6">
         <v>168</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1889,8 +3280,11 @@
       <c r="C12" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1900,8 +3294,11 @@
       <c r="C13" s="6">
         <v>132</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1911,8 +3308,11 @@
       <c r="C14" s="6">
         <v>231</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1922,8 +3322,11 @@
       <c r="C15" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1933,8 +3336,11 @@
       <c r="C16" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1944,8 +3350,11 @@
       <c r="C17" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1955,8 +3364,11 @@
       <c r="C18" s="6">
         <v>220</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -1966,8 +3378,11 @@
       <c r="C19" s="6">
         <v>240</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -1977,8 +3392,11 @@
       <c r="C20" s="6">
         <v>231</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -1988,8 +3406,11 @@
       <c r="C21" s="6">
         <v>231</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -1999,8 +3420,11 @@
       <c r="C22" s="6">
         <v>132</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -2010,8 +3434,11 @@
       <c r="C23" s="6">
         <v>177</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -2021,8 +3448,11 @@
       <c r="C24" s="6">
         <v>140</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -2032,8 +3462,11 @@
       <c r="C25" s="6">
         <v>105</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -2043,8 +3476,11 @@
       <c r="C26" s="6">
         <v>70</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +3490,11 @@
       <c r="C27" s="6">
         <v>82</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -2065,8 +3504,11 @@
       <c r="C28" s="6">
         <v>280</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -2076,8 +3518,11 @@
       <c r="C29" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -2087,8 +3532,11 @@
       <c r="C30" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -2098,8 +3546,11 @@
       <c r="C31" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -2109,8 +3560,11 @@
       <c r="C32" s="6">
         <v>68</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +3574,11 @@
       <c r="C33" s="6">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -2131,8 +3588,11 @@
       <c r="C34" s="6">
         <v>68</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -2142,8 +3602,11 @@
       <c r="C35" s="6">
         <v>72</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -2153,8 +3616,11 @@
       <c r="C36" s="6">
         <v>138</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -2164,8 +3630,11 @@
       <c r="C37" s="6">
         <v>34</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -2175,8 +3644,11 @@
       <c r="C38" s="6">
         <v>53</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -2186,8 +3658,11 @@
       <c r="C39" s="6">
         <v>53</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -2197,8 +3672,11 @@
       <c r="C40" s="6">
         <v>228</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -2208,8 +3686,11 @@
       <c r="C41" s="6">
         <v>104</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -2219,8 +3700,11 @@
       <c r="C42" s="6">
         <v>32</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -2230,8 +3714,11 @@
       <c r="C43" s="6">
         <v>32</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
@@ -2241,8 +3728,11 @@
       <c r="C44" s="6">
         <v>41</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
@@ -2252,8 +3742,11 @@
       <c r="C45" s="6">
         <v>41</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
@@ -2263,8 +3756,11 @@
       <c r="C46" s="6">
         <v>82</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
@@ -2274,8 +3770,11 @@
       <c r="C47" s="6">
         <v>62</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
@@ -2285,8 +3784,11 @@
       <c r="C48" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
@@ -2296,8 +3798,11 @@
       <c r="C49" s="6">
         <v>62</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
@@ -2307,8 +3812,11 @@
       <c r="C50" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
@@ -2318,8 +3826,11 @@
       <c r="C51" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
@@ -2329,8 +3840,11 @@
       <c r="C52" s="6">
         <v>32</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
@@ -2340,8 +3854,11 @@
       <c r="C53" s="6">
         <v>192</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
@@ -2351,8 +3868,11 @@
       <c r="C54" s="6">
         <v>198</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
@@ -2362,8 +3882,11 @@
       <c r="C55" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
@@ -2373,8 +3896,11 @@
       <c r="C56" s="6">
         <v>46</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
@@ -2384,8 +3910,11 @@
       <c r="C57" s="6">
         <v>92</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
@@ -2395,8 +3924,11 @@
       <c r="C58" s="6">
         <v>92</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
@@ -2406,8 +3938,11 @@
       <c r="C59" s="6">
         <v>92</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
@@ -2417,8 +3952,11 @@
       <c r="C60" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
@@ -2428,8 +3966,11 @@
       <c r="C61" s="6">
         <v>35</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
@@ -2439,8 +3980,11 @@
       <c r="C62" s="6">
         <v>46</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
@@ -2450,8 +3994,11 @@
       <c r="C63" s="6">
         <v>46</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
@@ -2461,8 +4008,11 @@
       <c r="C64" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
@@ -2472,8 +4022,11 @@
       <c r="C65" s="6">
         <v>46</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
@@ -2483,8 +4036,11 @@
       <c r="C66" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
@@ -2494,8 +4050,11 @@
       <c r="C67" s="6">
         <v>46</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
@@ -2505,8 +4064,11 @@
       <c r="C68" s="6">
         <v>33</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
@@ -2516,8 +4078,11 @@
       <c r="C69" s="6">
         <v>93</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
@@ -2527,8 +4092,11 @@
       <c r="C70" s="6">
         <v>129</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
@@ -2538,8 +4106,11 @@
       <c r="C71" s="6">
         <v>29</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
@@ -2549,8 +4120,11 @@
       <c r="C72" s="6">
         <v>40</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
@@ -2560,8 +4134,11 @@
       <c r="C73" s="6">
         <v>22</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
@@ -2571,8 +4148,11 @@
       <c r="C74" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
@@ -2582,8 +4162,11 @@
       <c r="C75" s="6">
         <v>105</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
@@ -2593,8 +4176,11 @@
       <c r="C76" s="6">
         <v>102</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
@@ -2604,8 +4190,11 @@
       <c r="C77" s="6">
         <v>153</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
@@ -2615,8 +4204,11 @@
       <c r="C78" s="6">
         <v>102</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
@@ -2626,8 +4218,11 @@
       <c r="C79" s="6">
         <v>102</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
@@ -2637,8 +4232,11 @@
       <c r="C80" s="6">
         <v>102</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
@@ -2648,8 +4246,11 @@
       <c r="C81" s="6">
         <v>102</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
@@ -2659,8 +4260,11 @@
       <c r="C82" s="6">
         <v>88.5</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
@@ -2670,8 +4274,11 @@
       <c r="C83" s="6">
         <v>116</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
@@ -2681,8 +4288,11 @@
       <c r="C84" s="6">
         <v>139</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
@@ -2692,8 +4302,11 @@
       <c r="C85" s="6">
         <v>95</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
@@ -2703,8 +4316,11 @@
       <c r="C86" s="6">
         <v>86</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
@@ -2714,8 +4330,11 @@
       <c r="C87" s="6">
         <v>98</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
@@ -2725,8 +4344,11 @@
       <c r="C88" s="6">
         <v>49</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
@@ -2736,8 +4358,11 @@
       <c r="C89" s="6">
         <v>49</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
@@ -2747,8 +4372,11 @@
       <c r="C90" s="6">
         <v>90</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
@@ -2758,8 +4386,11 @@
       <c r="C91" s="6">
         <v>135</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
@@ -2769,8 +4400,11 @@
       <c r="C92" s="6">
         <v>135</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
@@ -2780,8 +4414,11 @@
       <c r="C93" s="6">
         <v>36</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
@@ -2791,8 +4428,11 @@
       <c r="C94" s="6">
         <v>42</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
         <v>94</v>
       </c>
@@ -2802,8 +4442,11 @@
       <c r="C95" s="6">
         <v>150</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
@@ -2813,8 +4456,11 @@
       <c r="C96" s="6">
         <v>100</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
@@ -2824,8 +4470,11 @@
       <c r="C97" s="6">
         <v>50</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
         <v>97</v>
       </c>
@@ -2835,8 +4484,11 @@
       <c r="C98" s="6">
         <v>86</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
@@ -2846,8 +4498,11 @@
       <c r="C99" s="6">
         <v>43</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
         <v>99</v>
       </c>
@@ -2857,8 +4512,11 @@
       <c r="C100" s="6">
         <v>43</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100" s="5" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
         <v>100</v>
       </c>
@@ -2868,8 +4526,11 @@
       <c r="C101" s="6">
         <v>43</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101" s="5" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
         <v>101</v>
       </c>
@@ -2879,8 +4540,11 @@
       <c r="C102" s="6">
         <v>86</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102" s="5" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
         <v>102</v>
       </c>
@@ -2890,8 +4554,11 @@
       <c r="C103" s="6">
         <v>43</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
         <v>103</v>
       </c>
@@ -2901,8 +4568,11 @@
       <c r="C104" s="6">
         <v>50</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105" s="1" t="s">
         <v>104</v>
       </c>
@@ -2912,8 +4582,11 @@
       <c r="C105" s="6">
         <v>57</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" s="1" t="s">
         <v>105</v>
       </c>
@@ -2923,8 +4596,11 @@
       <c r="C106" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106" s="5" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107" s="1" t="s">
         <v>106</v>
       </c>
@@ -2934,8 +4610,11 @@
       <c r="C107" s="6">
         <v>29</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107" s="5" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108" s="1" t="s">
         <v>107</v>
       </c>
@@ -2945,8 +4624,11 @@
       <c r="C108" s="6">
         <v>70</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108" s="5" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109" s="1" t="s">
         <v>108</v>
       </c>
@@ -2956,8 +4638,11 @@
       <c r="C109" s="6">
         <v>180</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109" s="5" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" s="1" t="s">
         <v>109</v>
       </c>
@@ -2967,8 +4652,11 @@
       <c r="C110" s="6">
         <v>36</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110" s="5" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111" s="1" t="s">
         <v>110</v>
       </c>
@@ -2978,8 +4666,11 @@
       <c r="C111" s="6">
         <v>89</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111" s="5" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112" s="1" t="s">
         <v>111</v>
       </c>
@@ -2989,8 +4680,11 @@
       <c r="C112" s="6">
         <v>29</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112" s="5" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113" s="1" t="s">
         <v>112</v>
       </c>
@@ -3000,8 +4694,11 @@
       <c r="C113" s="6">
         <v>140</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113" s="5" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114" s="1" t="s">
         <v>113</v>
       </c>
@@ -3011,8 +4708,11 @@
       <c r="C114" s="6">
         <v>70</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114" s="5" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115" s="1" t="s">
         <v>114</v>
       </c>
@@ -3022,8 +4722,11 @@
       <c r="C115" s="6">
         <v>97.5</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" s="1" t="s">
         <v>115</v>
       </c>
@@ -3033,8 +4736,11 @@
       <c r="C116" s="6">
         <v>58</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117" s="1" t="s">
         <v>116</v>
       </c>
@@ -3044,8 +4750,11 @@
       <c r="C117" s="6">
         <v>97.5</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118" s="1" t="s">
         <v>117</v>
       </c>
@@ -3055,8 +4764,11 @@
       <c r="C118" s="6">
         <v>58</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119" s="1" t="s">
         <v>118</v>
       </c>
@@ -3066,8 +4778,11 @@
       <c r="C119" s="6">
         <v>29</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120" s="1" t="s">
         <v>119</v>
       </c>
@@ -3077,8 +4792,11 @@
       <c r="C120" s="6">
         <v>29</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" s="1" t="s">
         <v>120</v>
       </c>
@@ -3088,8 +4806,11 @@
       <c r="C121" s="6">
         <v>58</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D121" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" s="1" t="s">
         <v>121</v>
       </c>
@@ -3099,8 +4820,11 @@
       <c r="C122" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D122" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123" s="1" t="s">
         <v>122</v>
       </c>
@@ -3110,8 +4834,11 @@
       <c r="C123" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D123" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124" s="1" t="s">
         <v>123</v>
       </c>
@@ -3121,8 +4848,11 @@
       <c r="C124" s="6">
         <v>58</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125" s="1" t="s">
         <v>124</v>
       </c>
@@ -3132,8 +4862,11 @@
       <c r="C125" s="6">
         <v>58</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D125" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126" s="1" t="s">
         <v>125</v>
       </c>
@@ -3143,8 +4876,11 @@
       <c r="C126" s="6">
         <v>99</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127" s="1" t="s">
         <v>126</v>
       </c>
@@ -3154,8 +4890,11 @@
       <c r="C127" s="6">
         <v>110</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D127" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128" s="1" t="s">
         <v>127</v>
       </c>
@@ -3165,8 +4904,11 @@
       <c r="C128" s="6">
         <v>108</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
       <c r="A129" s="1" t="s">
         <v>128</v>
       </c>
@@ -3176,8 +4918,11 @@
       <c r="C129" s="6">
         <v>81</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130" s="1" t="s">
         <v>129</v>
       </c>
@@ -3187,8 +4932,11 @@
       <c r="C130" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
       <c r="A131" s="1" t="s">
         <v>130</v>
       </c>
@@ -3198,8 +4946,11 @@
       <c r="C131" s="6">
         <v>66</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D131" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132" s="1" t="s">
         <v>131</v>
       </c>
@@ -3209,8 +4960,11 @@
       <c r="C132" s="6">
         <v>66</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D132" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
       <c r="A133" s="1" t="s">
         <v>132</v>
       </c>
@@ -3220,8 +4974,11 @@
       <c r="C133" s="6">
         <v>66</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D133" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
       <c r="A134" s="1" t="s">
         <v>133</v>
       </c>
@@ -3231,8 +4988,11 @@
       <c r="C134" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
       <c r="A135" s="1" t="s">
         <v>134</v>
       </c>
@@ -3242,8 +5002,11 @@
       <c r="C135" s="6">
         <v>66</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D135" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
       <c r="A136" s="1" t="s">
         <v>135</v>
       </c>
@@ -3253,8 +5016,11 @@
       <c r="C136" s="6">
         <v>33</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D136" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
       <c r="A137" s="1" t="s">
         <v>136</v>
       </c>
@@ -3264,8 +5030,11 @@
       <c r="C137" s="6">
         <v>33</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D137" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
       <c r="A138" s="1" t="s">
         <v>137</v>
       </c>
@@ -3275,8 +5044,11 @@
       <c r="C138" s="6">
         <v>114</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D138" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
       <c r="A139" s="1" t="s">
         <v>138</v>
       </c>
@@ -3286,8 +5058,11 @@
       <c r="C139" s="6">
         <v>76</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D139" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
       <c r="A140" s="1" t="s">
         <v>139</v>
       </c>
@@ -3297,8 +5072,11 @@
       <c r="C140" s="6">
         <v>246</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D140" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
       <c r="A141" s="1" t="s">
         <v>140</v>
       </c>
@@ -3308,8 +5086,11 @@
       <c r="C141" s="6">
         <v>59</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D141" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
       <c r="A142" s="1" t="s">
         <v>141</v>
       </c>
@@ -3319,8 +5100,11 @@
       <c r="C142" s="6">
         <v>118</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D142" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
       <c r="A143" s="1" t="s">
         <v>142</v>
       </c>
@@ -3330,8 +5114,11 @@
       <c r="C143" s="6">
         <v>59</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D143" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
       <c r="A144" s="1" t="s">
         <v>143</v>
       </c>
@@ -3341,8 +5128,11 @@
       <c r="C144" s="6">
         <v>118</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D144" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
       <c r="A145" s="1" t="s">
         <v>144</v>
       </c>
@@ -3352,8 +5142,11 @@
       <c r="C145" s="6">
         <v>118</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D145" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
       <c r="A146" s="1" t="s">
         <v>145</v>
       </c>
@@ -3363,8 +5156,11 @@
       <c r="C146" s="6">
         <v>118</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D146" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
       <c r="A147" s="1" t="s">
         <v>146</v>
       </c>
@@ -3374,8 +5170,11 @@
       <c r="C147" s="6">
         <v>116</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D147" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
       <c r="A148" s="1" t="s">
         <v>147</v>
       </c>
@@ -3385,8 +5184,11 @@
       <c r="C148" s="6">
         <v>118</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D148" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
       <c r="A149" s="1" t="s">
         <v>148</v>
       </c>
@@ -3396,8 +5198,11 @@
       <c r="C149" s="6">
         <v>198</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D149" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
       <c r="A150" s="1" t="s">
         <v>149</v>
       </c>
@@ -3407,8 +5212,11 @@
       <c r="C150" s="6">
         <v>417</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D150" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
       <c r="A151" s="1" t="s">
         <v>150</v>
       </c>
@@ -3418,8 +5226,11 @@
       <c r="C151" s="6">
         <v>162</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D151" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
       <c r="A152" s="1" t="s">
         <v>151</v>
       </c>
@@ -3429,8 +5240,11 @@
       <c r="C152" s="6">
         <v>49.2</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D152" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
       <c r="A153" s="1" t="s">
         <v>152</v>
       </c>
@@ -3440,8 +5254,11 @@
       <c r="C153" s="6">
         <v>143.69999999999999</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D153" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
       <c r="A154" s="1" t="s">
         <v>153</v>
       </c>
@@ -3451,8 +5268,11 @@
       <c r="C154" s="6">
         <v>49.2</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D154" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
       <c r="A155" s="1" t="s">
         <v>154</v>
       </c>
@@ -3462,8 +5282,11 @@
       <c r="C155" s="6">
         <v>143.69999999999999</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D155" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
       <c r="A156" s="1" t="s">
         <v>155</v>
       </c>
@@ -3473,8 +5296,11 @@
       <c r="C156" s="6">
         <v>49</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D156" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
       <c r="A157" s="1" t="s">
         <v>156</v>
       </c>
@@ -3484,8 +5310,11 @@
       <c r="C157" s="6">
         <v>49</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D157" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
       <c r="A158" s="1" t="s">
         <v>157</v>
       </c>
@@ -3495,8 +5324,11 @@
       <c r="C158" s="6">
         <v>98</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D158" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
       <c r="A159" s="1" t="s">
         <v>158</v>
       </c>
@@ -3506,8 +5338,11 @@
       <c r="C159" s="6">
         <v>49</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D159" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
       <c r="A160" s="1" t="s">
         <v>159</v>
       </c>
@@ -3517,8 +5352,11 @@
       <c r="C160" s="6">
         <v>98</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D160" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
       <c r="A161" s="1" t="s">
         <v>160</v>
       </c>
@@ -3528,8 +5366,11 @@
       <c r="C161" s="6">
         <v>98</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D161" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
       <c r="A162" s="1" t="s">
         <v>161</v>
       </c>
@@ -3539,8 +5380,11 @@
       <c r="C162" s="6">
         <v>147</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D162" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
       <c r="A163" s="1" t="s">
         <v>162</v>
       </c>
@@ -3550,8 +5394,11 @@
       <c r="C163" s="6">
         <v>98</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D163" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
       <c r="A164" s="1" t="s">
         <v>163</v>
       </c>
@@ -3561,8 +5408,11 @@
       <c r="C164" s="6">
         <v>147</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D164" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
       <c r="A165" s="1" t="s">
         <v>164</v>
       </c>
@@ -3572,8 +5422,11 @@
       <c r="C165" s="6">
         <v>49</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D165" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
       <c r="A166" s="1" t="s">
         <v>165</v>
       </c>
@@ -3583,8 +5436,11 @@
       <c r="C166" s="6">
         <v>98</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D166" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
       <c r="A167" s="1" t="s">
         <v>166</v>
       </c>
@@ -3594,8 +5450,11 @@
       <c r="C167" s="6">
         <v>95</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D167" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
       <c r="A168" s="1" t="s">
         <v>167</v>
       </c>
@@ -3605,8 +5464,11 @@
       <c r="C168" s="6">
         <v>35</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D168" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
       <c r="A169" s="1" t="s">
         <v>168</v>
       </c>
@@ -3616,8 +5478,11 @@
       <c r="C169" s="6">
         <v>35</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D169" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
       <c r="A170" s="1" t="s">
         <v>169</v>
       </c>
@@ -3627,8 +5492,11 @@
       <c r="C170" s="6">
         <v>105</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D170" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
       <c r="A171" s="1" t="s">
         <v>170</v>
       </c>
@@ -3638,8 +5506,11 @@
       <c r="C171" s="6">
         <v>35</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D171" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
       <c r="A172" s="1" t="s">
         <v>171</v>
       </c>
@@ -3649,8 +5520,11 @@
       <c r="C172" s="6">
         <v>70</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D172" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
       <c r="A173" s="1" t="s">
         <v>172</v>
       </c>
@@ -3660,8 +5534,11 @@
       <c r="C173" s="6">
         <v>35</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D173" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
       <c r="A174" s="1" t="s">
         <v>173</v>
       </c>
@@ -3671,8 +5548,11 @@
       <c r="C174" s="6">
         <v>138</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D174" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
       <c r="A175" s="1" t="s">
         <v>174</v>
       </c>
@@ -3682,8 +5562,11 @@
       <c r="C175" s="6">
         <v>138</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D175" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
       <c r="A176" s="1" t="s">
         <v>175</v>
       </c>
@@ -3693,8 +5576,11 @@
       <c r="C176" s="6">
         <v>138</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D176" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
       <c r="A177" s="1" t="s">
         <v>176</v>
       </c>
@@ -3704,8 +5590,11 @@
       <c r="C177" s="6">
         <v>138</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D177" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
       <c r="A178" s="1" t="s">
         <v>177</v>
       </c>
@@ -3715,8 +5604,11 @@
       <c r="C178" s="6">
         <v>138</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D178" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
       <c r="A179" s="1" t="s">
         <v>178</v>
       </c>
@@ -3726,8 +5618,11 @@
       <c r="C179" s="6">
         <v>46</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D179" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
       <c r="A180" s="1" t="s">
         <v>179</v>
       </c>
@@ -3737,8 +5632,11 @@
       <c r="C180" s="6">
         <v>138</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D180" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
       <c r="A181" s="1" t="s">
         <v>180</v>
       </c>
@@ -3748,8 +5646,11 @@
       <c r="C181" s="6">
         <v>46</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D181" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
       <c r="A182" s="1" t="s">
         <v>181</v>
       </c>
@@ -3759,8 +5660,11 @@
       <c r="C182" s="6">
         <v>92</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D182" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
       <c r="A183" s="1" t="s">
         <v>182</v>
       </c>
@@ -3770,8 +5674,11 @@
       <c r="C183" s="6">
         <v>92</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D183" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
       <c r="A184" s="1" t="s">
         <v>183</v>
       </c>
@@ -3781,8 +5688,11 @@
       <c r="C184" s="6">
         <v>92</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D184" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
       <c r="A185" s="1" t="s">
         <v>184</v>
       </c>
@@ -3792,8 +5702,11 @@
       <c r="C185" s="6">
         <v>138</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D185" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
       <c r="A186" s="1" t="s">
         <v>185</v>
       </c>
@@ -3803,8 +5716,11 @@
       <c r="C186" s="6">
         <v>45</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D186" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
       <c r="A187" s="1" t="s">
         <v>186</v>
       </c>
@@ -3814,8 +5730,11 @@
       <c r="C187" s="6">
         <v>46</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D187" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
       <c r="A188" s="1" t="s">
         <v>187</v>
       </c>
@@ -3825,8 +5744,11 @@
       <c r="C188" s="6">
         <v>45</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D188" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
       <c r="A189" s="1" t="s">
         <v>188</v>
       </c>
@@ -3836,8 +5758,11 @@
       <c r="C189" s="6">
         <v>45</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D189" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
       <c r="A190" s="1" t="s">
         <v>189</v>
       </c>
@@ -3847,8 +5772,11 @@
       <c r="C190" s="6">
         <v>92</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D190" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
       <c r="A191" s="1" t="s">
         <v>190</v>
       </c>
@@ -3858,8 +5786,11 @@
       <c r="C191" s="6">
         <v>45</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D191" s="5" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
       <c r="A192" s="1" t="s">
         <v>191</v>
       </c>
@@ -3869,8 +5800,11 @@
       <c r="C192" s="6">
         <v>45</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D192" s="5" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
       <c r="A193" s="1" t="s">
         <v>192</v>
       </c>
@@ -3880,8 +5814,11 @@
       <c r="C193" s="6">
         <v>45</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D193" s="5" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
       <c r="A194" s="1" t="s">
         <v>193</v>
       </c>
@@ -3891,8 +5828,11 @@
       <c r="C194" s="6">
         <v>45</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D194" s="5" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
       <c r="A195" s="1" t="s">
         <v>194</v>
       </c>
@@ -3902,8 +5842,11 @@
       <c r="C195" s="6">
         <v>46</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D195" s="5" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
       <c r="A196" s="1" t="s">
         <v>195</v>
       </c>
@@ -3913,8 +5856,11 @@
       <c r="C196" s="6">
         <v>45</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D196" s="5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
       <c r="A197" s="1" t="s">
         <v>196</v>
       </c>
@@ -3924,8 +5870,11 @@
       <c r="C197" s="6">
         <v>46</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D197" s="5" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
       <c r="A198" s="1" t="s">
         <v>197</v>
       </c>
@@ -3935,8 +5884,11 @@
       <c r="C198" s="6">
         <v>138</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D198" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
       <c r="A199" s="1" t="s">
         <v>198</v>
       </c>
@@ -3946,8 +5898,11 @@
       <c r="C199" s="6">
         <v>92</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D199" s="5" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
       <c r="A200" s="1" t="s">
         <v>199</v>
       </c>
@@ -3957,8 +5912,11 @@
       <c r="C200" s="6">
         <v>92</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D200" s="5" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
       <c r="A201" s="1" t="s">
         <v>200</v>
       </c>
@@ -3968,8 +5926,11 @@
       <c r="C201" s="6">
         <v>46</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D201" s="5" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
       <c r="A202" s="1" t="s">
         <v>201</v>
       </c>
@@ -3979,8 +5940,11 @@
       <c r="C202" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D202" s="5" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
       <c r="A203" s="1" t="s">
         <v>202</v>
       </c>
@@ -3990,8 +5954,11 @@
       <c r="C203" s="6">
         <v>45</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D203" s="5" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
       <c r="A204" s="1" t="s">
         <v>203</v>
       </c>
@@ -4001,8 +5968,11 @@
       <c r="C204" s="6">
         <v>92</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D204" s="5" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
       <c r="A205" s="1" t="s">
         <v>204</v>
       </c>
@@ -4012,8 +5982,11 @@
       <c r="C205" s="6">
         <v>92</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D205" s="5" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
       <c r="A206" s="1" t="s">
         <v>205</v>
       </c>
@@ -4023,8 +5996,11 @@
       <c r="C206" s="6">
         <v>80</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D206" s="5" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
       <c r="A207" s="1" t="s">
         <v>206</v>
       </c>
@@ -4034,8 +6010,11 @@
       <c r="C207" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D207" s="5" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
       <c r="A208" s="1" t="s">
         <v>207</v>
       </c>
@@ -4045,8 +6024,11 @@
       <c r="C208" s="6">
         <v>43</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D208" s="5" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
       <c r="A209" s="1" t="s">
         <v>208</v>
       </c>
@@ -4056,8 +6038,11 @@
       <c r="C209" s="6">
         <v>74.900000000000006</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D209" s="5" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
       <c r="A210" s="1" t="s">
         <v>209</v>
       </c>
@@ -4067,8 +6052,11 @@
       <c r="C210" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D210" s="5" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
       <c r="A211" s="1" t="s">
         <v>210</v>
       </c>
@@ -4078,8 +6066,11 @@
       <c r="C211" s="6">
         <v>105</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D211" s="5" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
       <c r="A212" s="1" t="s">
         <v>211</v>
       </c>
@@ -4089,8 +6080,11 @@
       <c r="C212" s="6">
         <v>297</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D212" s="5" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
       <c r="A213" s="1" t="s">
         <v>212</v>
       </c>
@@ -4100,8 +6094,11 @@
       <c r="C213" s="6">
         <v>88</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D213" s="5" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
       <c r="A214" s="1" t="s">
         <v>213</v>
       </c>
@@ -4111,8 +6108,11 @@
       <c r="C214" s="6">
         <v>62</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D214" s="5" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
       <c r="A215" s="1" t="s">
         <v>214</v>
       </c>
@@ -4122,8 +6122,11 @@
       <c r="C215" s="6">
         <v>117</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D215" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
       <c r="A216" s="1" t="s">
         <v>215</v>
       </c>
@@ -4133,8 +6136,11 @@
       <c r="C216" s="6">
         <v>235.2</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D216" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
       <c r="A217" s="1" t="s">
         <v>216</v>
       </c>
@@ -4144,8 +6150,11 @@
       <c r="C217" s="6">
         <v>352.8</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D217" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
       <c r="A218" s="1" t="s">
         <v>217</v>
       </c>
@@ -4155,8 +6164,11 @@
       <c r="C218" s="6">
         <v>35</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D218" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
       <c r="A219" s="1" t="s">
         <v>218</v>
       </c>
@@ -4166,8 +6178,11 @@
       <c r="C219" s="6">
         <v>39</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D219" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
       <c r="A220" s="1" t="s">
         <v>219</v>
       </c>
@@ -4177,8 +6192,11 @@
       <c r="C220" s="6">
         <v>240</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D220" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
       <c r="A221" s="1" t="s">
         <v>220</v>
       </c>
@@ -4188,8 +6206,11 @@
       <c r="C221" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D221" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
       <c r="A222" s="1" t="s">
         <v>221</v>
       </c>
@@ -4199,8 +6220,11 @@
       <c r="C222" s="6">
         <v>78</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D222" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
       <c r="A223" s="1" t="s">
         <v>222</v>
       </c>
@@ -4210,8 +6234,11 @@
       <c r="C223" s="6">
         <v>28</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D223" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
       <c r="A224" s="1" t="s">
         <v>223</v>
       </c>
@@ -4221,8 +6248,11 @@
       <c r="C224" s="6">
         <v>60</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D224" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
       <c r="A225" s="1" t="s">
         <v>224</v>
       </c>
@@ -4232,8 +6262,11 @@
       <c r="C225" s="6">
         <v>60</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D225" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
       <c r="A226" s="1" t="s">
         <v>225</v>
       </c>
@@ -4243,8 +6276,11 @@
       <c r="C226" s="6">
         <v>33.5</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D226" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
       <c r="A227" s="1" t="s">
         <v>226</v>
       </c>
@@ -4254,8 +6290,11 @@
       <c r="C227" s="6">
         <v>405</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D227" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
       <c r="A228" s="1" t="s">
         <v>227</v>
       </c>
@@ -4265,8 +6304,11 @@
       <c r="C228" s="6">
         <v>160</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D228" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
       <c r="A229" s="1" t="s">
         <v>228</v>
       </c>
@@ -4276,8 +6318,11 @@
       <c r="C229" s="6">
         <v>120</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D229" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
       <c r="A230" s="1" t="s">
         <v>229</v>
       </c>
@@ -4287,8 +6332,11 @@
       <c r="C230" s="6">
         <v>210</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D230" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
       <c r="A231" s="1" t="s">
         <v>230</v>
       </c>
@@ -4298,8 +6346,11 @@
       <c r="C231" s="6">
         <v>35</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D231" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
       <c r="A232" s="1" t="s">
         <v>407</v>
       </c>
@@ -4309,8 +6360,11 @@
       <c r="C232" s="6">
         <v>36</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D232" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
       <c r="A233" s="1" t="s">
         <v>231</v>
       </c>
@@ -4320,8 +6374,11 @@
       <c r="C233" s="6">
         <v>88</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D233" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
       <c r="A234" s="1" t="s">
         <v>232</v>
       </c>
@@ -4331,8 +6388,11 @@
       <c r="C234" s="6">
         <v>308</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D234" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
       <c r="A235" s="1" t="s">
         <v>233</v>
       </c>
@@ -4342,8 +6402,11 @@
       <c r="C235" s="6">
         <v>44</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D235" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
       <c r="A236" s="1" t="s">
         <v>234</v>
       </c>
@@ -4353,8 +6416,11 @@
       <c r="C236" s="6">
         <v>132</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D236" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
       <c r="A237" s="1" t="s">
         <v>235</v>
       </c>
@@ -4364,8 +6430,11 @@
       <c r="C237" s="6">
         <v>352</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D237" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
       <c r="A238" s="1" t="s">
         <v>236</v>
       </c>
@@ -4375,8 +6444,11 @@
       <c r="C238" s="6">
         <v>44</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D238" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
       <c r="A239" s="1" t="s">
         <v>237</v>
       </c>
@@ -4386,8 +6458,11 @@
       <c r="C239" s="6">
         <v>88</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D239" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
       <c r="A240" s="1" t="s">
         <v>238</v>
       </c>
@@ -4397,8 +6472,11 @@
       <c r="C240" s="6">
         <v>88</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D240" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
       <c r="A241" s="1" t="s">
         <v>239</v>
       </c>
@@ -4408,8 +6486,11 @@
       <c r="C241" s="6">
         <v>44</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D241" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" s="2" customFormat="1">
       <c r="A242" s="1" t="s">
         <v>240</v>
       </c>
@@ -4419,8 +6500,11 @@
       <c r="C242" s="6">
         <v>88</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D242" s="2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
       <c r="A243" s="1" t="s">
         <v>241</v>
       </c>
@@ -4430,8 +6514,11 @@
       <c r="C243" s="6">
         <v>105</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D243" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
       <c r="A244" s="1" t="s">
         <v>242</v>
       </c>
@@ -4441,8 +6528,11 @@
       <c r="C244" s="6">
         <v>105</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D244" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
       <c r="A245" s="1" t="s">
         <v>243</v>
       </c>
@@ -4452,8 +6542,11 @@
       <c r="C245" s="6">
         <v>234</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D245" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
       <c r="A246" s="1" t="s">
         <v>244</v>
       </c>
@@ -4463,8 +6556,11 @@
       <c r="C246" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D246" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
       <c r="A247" s="1" t="s">
         <v>245</v>
       </c>
@@ -4474,8 +6570,11 @@
       <c r="C247" s="6">
         <v>215</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D247" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
       <c r="A248" s="1" t="s">
         <v>246</v>
       </c>
@@ -4485,8 +6584,11 @@
       <c r="C248" s="6">
         <v>90</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D248" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
       <c r="A249" s="1" t="s">
         <v>247</v>
       </c>
@@ -4496,8 +6598,11 @@
       <c r="C249" s="6">
         <v>29</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D249" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
       <c r="A250" s="1" t="s">
         <v>248</v>
       </c>
@@ -4507,8 +6612,11 @@
       <c r="C250" s="6">
         <v>32</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D250" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
       <c r="A251" s="1" t="s">
         <v>249</v>
       </c>
@@ -4518,8 +6626,11 @@
       <c r="C251" s="6">
         <v>105</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D251" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
       <c r="A252" s="1" t="s">
         <v>250</v>
       </c>
@@ -4529,8 +6640,11 @@
       <c r="C252" s="6">
         <v>35</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D252" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
       <c r="A253" s="1" t="s">
         <v>251</v>
       </c>
@@ -4540,8 +6654,11 @@
       <c r="C253" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D253" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
       <c r="A254" s="1" t="s">
         <v>252</v>
       </c>
@@ -4551,8 +6668,11 @@
       <c r="C254" s="6">
         <v>123</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D254" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
       <c r="A255" s="1" t="s">
         <v>253</v>
       </c>
@@ -4562,8 +6682,11 @@
       <c r="C255" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D255" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
       <c r="A256" s="1" t="s">
         <v>254</v>
       </c>
@@ -4573,8 +6696,11 @@
       <c r="C256" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D256" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
       <c r="A257" s="1" t="s">
         <v>255</v>
       </c>
@@ -4584,8 +6710,11 @@
       <c r="C257" s="6">
         <v>182</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D257" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
       <c r="A258" s="1" t="s">
         <v>256</v>
       </c>
@@ -4595,8 +6724,11 @@
       <c r="C258" s="6">
         <v>94</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D258" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
       <c r="A259" s="1" t="s">
         <v>257</v>
       </c>
@@ -4606,8 +6738,11 @@
       <c r="C259" s="6">
         <v>195</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D259" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
       <c r="A260" s="1" t="s">
         <v>258</v>
       </c>
@@ -4617,8 +6752,11 @@
       <c r="C260" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D260" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
       <c r="A261" s="1" t="s">
         <v>259</v>
       </c>
@@ -4628,8 +6766,11 @@
       <c r="C261" s="6">
         <v>37</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D261" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
       <c r="A262" s="1" t="s">
         <v>260</v>
       </c>
@@ -4639,8 +6780,11 @@
       <c r="C262" s="6">
         <v>78</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D262" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
       <c r="A263" s="1" t="s">
         <v>261</v>
       </c>
@@ -4650,8 +6794,11 @@
       <c r="C263" s="6">
         <v>165</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D263" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
       <c r="A264" s="1" t="s">
         <v>262</v>
       </c>
@@ -4661,8 +6808,11 @@
       <c r="C264" s="6">
         <v>86</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D264" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
       <c r="A265" s="1" t="s">
         <v>263</v>
       </c>
@@ -4672,8 +6822,11 @@
       <c r="C265" s="6">
         <v>92</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D265" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
       <c r="A266" s="1" t="s">
         <v>264</v>
       </c>
@@ -4683,8 +6836,11 @@
       <c r="C266" s="6">
         <v>47</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D266" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
       <c r="A267" s="1" t="s">
         <v>265</v>
       </c>
@@ -4694,8 +6850,11 @@
       <c r="C267" s="6">
         <v>40</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D267" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
       <c r="A268" s="1" t="s">
         <v>266</v>
       </c>
@@ -4705,8 +6864,11 @@
       <c r="C268" s="6">
         <v>84</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D268" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
       <c r="A269" s="1" t="s">
         <v>267</v>
       </c>
@@ -4716,8 +6878,11 @@
       <c r="C269" s="6">
         <v>64</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D269" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
       <c r="A270" s="1" t="s">
         <v>268</v>
       </c>
@@ -4727,8 +6892,11 @@
       <c r="C270" s="6">
         <v>48</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D270" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
       <c r="A271" s="1" t="s">
         <v>269</v>
       </c>
@@ -4738,8 +6906,11 @@
       <c r="C271" s="6">
         <v>31</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D271" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
       <c r="A272" s="1" t="s">
         <v>270</v>
       </c>
@@ -4749,8 +6920,11 @@
       <c r="C272" s="6">
         <v>47</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D272" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
       <c r="A273" s="1" t="s">
         <v>271</v>
       </c>
@@ -4760,8 +6934,11 @@
       <c r="C273" s="6">
         <v>49</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D273" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
       <c r="A274" s="1" t="s">
         <v>272</v>
       </c>
@@ -4771,8 +6948,11 @@
       <c r="C274" s="6">
         <v>88</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D274" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
       <c r="A275" s="1" t="s">
         <v>273</v>
       </c>
@@ -4782,8 +6962,11 @@
       <c r="C275" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D275" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
       <c r="A276" s="1" t="s">
         <v>274</v>
       </c>
@@ -4793,8 +6976,11 @@
       <c r="C276" s="6">
         <v>138</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D276" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
       <c r="A277" s="1" t="s">
         <v>275</v>
       </c>
@@ -4804,8 +6990,11 @@
       <c r="C277" s="6">
         <v>141</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D277" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
       <c r="A278" s="1" t="s">
         <v>276</v>
       </c>
@@ -4815,8 +7004,11 @@
       <c r="C278" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D278" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
       <c r="A279" s="1" t="s">
         <v>277</v>
       </c>
@@ -4826,8 +7018,11 @@
       <c r="C279" s="6">
         <v>25</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D279" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
       <c r="A280" s="1" t="s">
         <v>278</v>
       </c>
@@ -4837,8 +7032,11 @@
       <c r="C280" s="6">
         <v>110</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D280" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
       <c r="A281" s="1" t="s">
         <v>279</v>
       </c>
@@ -4848,8 +7046,11 @@
       <c r="C281" s="6">
         <v>86</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D281" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
       <c r="A282" s="1" t="s">
         <v>280</v>
       </c>
@@ -4859,8 +7060,11 @@
       <c r="C282" s="6">
         <v>86</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D282" s="5" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
       <c r="A283" s="1" t="s">
         <v>281</v>
       </c>
@@ -4870,8 +7074,11 @@
       <c r="C283" s="6">
         <v>86</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D283" s="5" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
       <c r="A284" s="1" t="s">
         <v>282</v>
       </c>
@@ -4881,8 +7088,11 @@
       <c r="C284" s="6">
         <v>43</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D284" s="5" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
       <c r="A285" s="1" t="s">
         <v>283</v>
       </c>
@@ -4892,8 +7102,11 @@
       <c r="C285" s="6">
         <v>86</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D285" s="5" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
       <c r="A286" s="1" t="s">
         <v>284</v>
       </c>
@@ -4903,8 +7116,11 @@
       <c r="C286" s="6">
         <v>183</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D286" s="5" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
       <c r="A287" s="1" t="s">
         <v>285</v>
       </c>
@@ -4914,8 +7130,11 @@
       <c r="C287" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D287" s="5" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
       <c r="A288" s="1" t="s">
         <v>286</v>
       </c>
@@ -4925,8 +7144,11 @@
       <c r="C288" s="6">
         <v>132</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D288" s="5" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
       <c r="A289" s="1" t="s">
         <v>287</v>
       </c>
@@ -4936,8 +7158,11 @@
       <c r="C289" s="6">
         <v>116</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D289" s="5" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
       <c r="A290" s="1" t="s">
         <v>288</v>
       </c>
@@ -4947,8 +7172,11 @@
       <c r="C290" s="6">
         <v>94</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D290" s="5" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
       <c r="A291" s="1" t="s">
         <v>289</v>
       </c>
@@ -4958,8 +7186,11 @@
       <c r="C291" s="6">
         <v>14</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D291" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
       <c r="A292" s="1" t="s">
         <v>290</v>
       </c>
@@ -4969,8 +7200,11 @@
       <c r="C292" s="6">
         <v>324</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D292" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
       <c r="A293" s="1" t="s">
         <v>291</v>
       </c>
@@ -4980,8 +7214,11 @@
       <c r="C293" s="6">
         <v>30.5</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D293" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
       <c r="A294" s="1" t="s">
         <v>292</v>
       </c>
@@ -4991,8 +7228,11 @@
       <c r="C294" s="6">
         <v>101.8</v>
       </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D294" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
       <c r="A295" s="1" t="s">
         <v>293</v>
       </c>
@@ -5002,8 +7242,11 @@
       <c r="C295" s="6">
         <v>33</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D295" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
       <c r="A296" s="1" t="s">
         <v>294</v>
       </c>
@@ -5013,8 +7256,11 @@
       <c r="C296" s="6">
         <v>33</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D296" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
       <c r="A297" s="1" t="s">
         <v>295</v>
       </c>
@@ -5024,8 +7270,11 @@
       <c r="C297" s="6">
         <v>66</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D297" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
       <c r="A298" s="1" t="s">
         <v>296</v>
       </c>
@@ -5035,8 +7284,11 @@
       <c r="C298" s="6">
         <v>33</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D298" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
       <c r="A299" s="1" t="s">
         <v>297</v>
       </c>
@@ -5046,8 +7298,11 @@
       <c r="C299" s="6">
         <v>33</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D299" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
       <c r="A300" s="1" t="s">
         <v>298</v>
       </c>
@@ -5057,8 +7312,11 @@
       <c r="C300" s="6">
         <v>66</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D300" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
       <c r="A301" s="1" t="s">
         <v>299</v>
       </c>
@@ -5068,8 +7326,11 @@
       <c r="C301" s="6">
         <v>33</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D301" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
       <c r="A302" s="1" t="s">
         <v>300</v>
       </c>
@@ -5079,8 +7340,11 @@
       <c r="C302" s="6">
         <v>99</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D302" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
       <c r="A303" s="1" t="s">
         <v>301</v>
       </c>
@@ -5090,8 +7354,11 @@
       <c r="C303" s="6">
         <v>33</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D303" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" s="3" customFormat="1">
       <c r="A304" s="1" t="s">
         <v>302</v>
       </c>
@@ -5101,8 +7368,11 @@
       <c r="C304" s="6">
         <v>33</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D304" s="3" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
       <c r="A305" s="1" t="s">
         <v>303</v>
       </c>
@@ -5112,8 +7382,11 @@
       <c r="C305" s="6">
         <v>33</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D305" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
       <c r="A306" s="1" t="s">
         <v>304</v>
       </c>
@@ -5123,8 +7396,11 @@
       <c r="C306" s="6">
         <v>66</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D306" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
       <c r="A307" s="1" t="s">
         <v>305</v>
       </c>
@@ -5134,8 +7410,11 @@
       <c r="C307" s="6">
         <v>33</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D307" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
       <c r="A308" s="1" t="s">
         <v>306</v>
       </c>
@@ -5145,8 +7424,11 @@
       <c r="C308" s="6">
         <v>33</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D308" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
       <c r="A309" s="1" t="s">
         <v>307</v>
       </c>
@@ -5156,8 +7438,11 @@
       <c r="C309" s="6">
         <v>66</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D309" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
       <c r="A310" s="1" t="s">
         <v>308</v>
       </c>
@@ -5167,8 +7452,11 @@
       <c r="C310" s="6">
         <v>33</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D310" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
       <c r="A311" s="1" t="s">
         <v>309</v>
       </c>
@@ -5178,8 +7466,11 @@
       <c r="C311" s="6">
         <v>102</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D311" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
       <c r="A312" s="1" t="s">
         <v>310</v>
       </c>
@@ -5189,8 +7480,11 @@
       <c r="C312" s="6">
         <v>102</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D312" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
       <c r="A313" s="1" t="s">
         <v>311</v>
       </c>
@@ -5200,8 +7494,11 @@
       <c r="C313" s="6">
         <v>102</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D313" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
       <c r="A314" s="1" t="s">
         <v>312</v>
       </c>
@@ -5211,8 +7508,11 @@
       <c r="C314" s="6">
         <v>102</v>
       </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D314" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
       <c r="A315" s="1" t="s">
         <v>313</v>
       </c>
@@ -5222,8 +7522,11 @@
       <c r="C315" s="6">
         <v>102</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D315" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
       <c r="A316" s="1" t="s">
         <v>314</v>
       </c>
@@ -5233,8 +7536,11 @@
       <c r="C316" s="6">
         <v>102</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D316" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
       <c r="A317" s="1" t="s">
         <v>315</v>
       </c>
@@ -5244,8 +7550,11 @@
       <c r="C317" s="6">
         <v>102</v>
       </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D317" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
       <c r="A318" s="1" t="s">
         <v>316</v>
       </c>
@@ -5255,8 +7564,11 @@
       <c r="C318" s="6">
         <v>102</v>
       </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D318" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
       <c r="A319" s="1" t="s">
         <v>317</v>
       </c>
@@ -5266,8 +7578,11 @@
       <c r="C319" s="6">
         <v>102</v>
       </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D319" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
       <c r="A320" s="1" t="s">
         <v>318</v>
       </c>
@@ -5277,8 +7592,11 @@
       <c r="C320" s="6">
         <v>102</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D320" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
       <c r="A321" s="1" t="s">
         <v>319</v>
       </c>
@@ -5288,8 +7606,11 @@
       <c r="C321" s="6">
         <v>102</v>
       </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D321" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
       <c r="A322" s="1" t="s">
         <v>320</v>
       </c>
@@ -5299,8 +7620,11 @@
       <c r="C322" s="6">
         <v>102</v>
       </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D322" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
       <c r="A323" s="1" t="s">
         <v>321</v>
       </c>
@@ -5310,8 +7634,11 @@
       <c r="C323" s="6">
         <v>68</v>
       </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D323" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
       <c r="A324" s="1" t="s">
         <v>322</v>
       </c>
@@ -5321,8 +7648,11 @@
       <c r="C324" s="6">
         <v>102</v>
       </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D324" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
       <c r="A325" s="1" t="s">
         <v>323</v>
       </c>
@@ -5332,8 +7662,11 @@
       <c r="C325" s="6">
         <v>68</v>
       </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D325" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
       <c r="A326" s="1" t="s">
         <v>324</v>
       </c>
@@ -5343,8 +7676,11 @@
       <c r="C326" s="6">
         <v>102</v>
       </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D326" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
       <c r="A327" s="1" t="s">
         <v>325</v>
       </c>
@@ -5354,8 +7690,11 @@
       <c r="C327" s="6">
         <v>102</v>
       </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D327" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
       <c r="A328" s="1" t="s">
         <v>326</v>
       </c>
@@ -5365,8 +7704,11 @@
       <c r="C328" s="6">
         <v>102</v>
       </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D328" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
       <c r="A329" s="1" t="s">
         <v>327</v>
       </c>
@@ -5376,8 +7718,11 @@
       <c r="C329" s="6">
         <v>102</v>
       </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D329" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
       <c r="A330" s="1" t="s">
         <v>328</v>
       </c>
@@ -5387,8 +7732,11 @@
       <c r="C330" s="6">
         <v>68</v>
       </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D330" s="5" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
       <c r="A331" s="1" t="s">
         <v>329</v>
       </c>
@@ -5398,8 +7746,11 @@
       <c r="C331" s="6">
         <v>102</v>
       </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D331" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
       <c r="A332" s="1" t="s">
         <v>330</v>
       </c>
@@ -5409,8 +7760,11 @@
       <c r="C332" s="6">
         <v>102</v>
       </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D332" s="8" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
       <c r="A333" s="1" t="s">
         <v>331</v>
       </c>
@@ -5420,8 +7774,11 @@
       <c r="C333" s="6">
         <v>102</v>
       </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D333" s="5" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
       <c r="A334" s="1" t="s">
         <v>332</v>
       </c>
@@ -5431,8 +7788,11 @@
       <c r="C334" s="6">
         <v>34</v>
       </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D334" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
       <c r="A335" s="1" t="s">
         <v>333</v>
       </c>
@@ -5442,8 +7802,11 @@
       <c r="C335" s="6">
         <v>34</v>
       </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D335" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
       <c r="A336" s="1" t="s">
         <v>334</v>
       </c>
@@ -5453,8 +7816,11 @@
       <c r="C336" s="6">
         <v>68</v>
       </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D336" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
       <c r="A337" s="1" t="s">
         <v>335</v>
       </c>
@@ -5464,8 +7830,11 @@
       <c r="C337" s="6">
         <v>34</v>
       </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D337" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
       <c r="A338" s="1" t="s">
         <v>336</v>
       </c>
@@ -5475,8 +7844,11 @@
       <c r="C338" s="6">
         <v>136</v>
       </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D338" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
       <c r="A339" s="1" t="s">
         <v>337</v>
       </c>
@@ -5486,8 +7858,11 @@
       <c r="C339" s="6">
         <v>102</v>
       </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D339" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
       <c r="A340" s="1" t="s">
         <v>338</v>
       </c>
@@ -5497,8 +7872,11 @@
       <c r="C340" s="6">
         <v>68</v>
       </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D340" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
       <c r="A341" s="1" t="s">
         <v>339</v>
       </c>
@@ -5508,8 +7886,11 @@
       <c r="C341" s="6">
         <v>33</v>
       </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D341" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
       <c r="A342" s="1" t="s">
         <v>340</v>
       </c>
@@ -5519,8 +7900,11 @@
       <c r="C342" s="6">
         <v>99</v>
       </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D342" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
       <c r="A343" s="1" t="s">
         <v>341</v>
       </c>
@@ -5530,8 +7914,11 @@
       <c r="C343" s="6">
         <v>33</v>
       </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D343" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
       <c r="A344" s="1" t="s">
         <v>342</v>
       </c>
@@ -5541,8 +7928,11 @@
       <c r="C344" s="6">
         <v>66</v>
       </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D344" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
       <c r="A345" s="1" t="s">
         <v>343</v>
       </c>
@@ -5552,8 +7942,11 @@
       <c r="C345" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D345" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
       <c r="A346" s="1" t="s">
         <v>344</v>
       </c>
@@ -5563,8 +7956,11 @@
       <c r="C346" s="6">
         <v>99</v>
       </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D346" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
       <c r="A347" s="1" t="s">
         <v>345</v>
       </c>
@@ -5574,8 +7970,11 @@
       <c r="C347" s="6">
         <v>99</v>
       </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D347" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
       <c r="A348" s="1" t="s">
         <v>346</v>
       </c>
@@ -5585,8 +7984,11 @@
       <c r="C348" s="6">
         <v>99</v>
       </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D348" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
       <c r="A349" s="1" t="s">
         <v>347</v>
       </c>
@@ -5596,8 +7998,11 @@
       <c r="C349" s="6">
         <v>66</v>
       </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D349" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
       <c r="A350" s="1" t="s">
         <v>348</v>
       </c>
@@ -5607,8 +8012,11 @@
       <c r="C350" s="6">
         <v>66</v>
       </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D350" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
       <c r="A351" s="1" t="s">
         <v>349</v>
       </c>
@@ -5618,8 +8026,11 @@
       <c r="C351" s="6">
         <v>33</v>
       </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D351" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
       <c r="A352" s="1" t="s">
         <v>350</v>
       </c>
@@ -5629,8 +8040,11 @@
       <c r="C352" s="6">
         <v>66</v>
       </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D352" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
       <c r="A353" s="1" t="s">
         <v>351</v>
       </c>
@@ -5640,8 +8054,11 @@
       <c r="C353" s="6">
         <v>33</v>
       </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D353" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
       <c r="A354" s="1" t="s">
         <v>352</v>
       </c>
@@ -5651,8 +8068,11 @@
       <c r="C354" s="6">
         <v>66</v>
       </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D354" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
       <c r="A355" s="1" t="s">
         <v>353</v>
       </c>
@@ -5662,8 +8082,11 @@
       <c r="C355" s="6">
         <v>33</v>
       </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D355" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
       <c r="A356" s="1" t="s">
         <v>354</v>
       </c>
@@ -5673,8 +8096,11 @@
       <c r="C356" s="6">
         <v>33</v>
       </c>
-    </row>
-    <row r="357" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D356" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" s="4" customFormat="1">
       <c r="A357" s="1" t="s">
         <v>355</v>
       </c>
@@ -5684,8 +8110,11 @@
       <c r="C357" s="6">
         <v>33</v>
       </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D357" s="4" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
       <c r="A358" s="1" t="s">
         <v>356</v>
       </c>
@@ -5695,8 +8124,11 @@
       <c r="C358" s="6">
         <v>66</v>
       </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D358" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
       <c r="A359" s="1" t="s">
         <v>357</v>
       </c>
@@ -5706,8 +8138,11 @@
       <c r="C359" s="6">
         <v>33</v>
       </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D359" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
       <c r="A360" s="1" t="s">
         <v>358</v>
       </c>
@@ -5717,8 +8152,11 @@
       <c r="C360" s="6">
         <v>66</v>
       </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D360" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
       <c r="A361" s="1" t="s">
         <v>359</v>
       </c>
@@ -5728,8 +8166,11 @@
       <c r="C361" s="6">
         <v>66</v>
       </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D361" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
       <c r="A362" s="1" t="s">
         <v>360</v>
       </c>
@@ -5739,8 +8180,11 @@
       <c r="C362" s="6">
         <v>58</v>
       </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D362" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
       <c r="A363" s="1" t="s">
         <v>361</v>
       </c>
@@ -5750,8 +8194,11 @@
       <c r="C363" s="6">
         <v>29</v>
       </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D363" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
       <c r="A364" s="1" t="s">
         <v>362</v>
       </c>
@@ -5761,8 +8208,11 @@
       <c r="C364" s="6">
         <v>308</v>
       </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D364" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
       <c r="A365" s="1" t="s">
         <v>363</v>
       </c>
@@ -5772,8 +8222,11 @@
       <c r="C365" s="6">
         <v>30</v>
       </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D365" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
       <c r="A366" s="1" t="s">
         <v>364</v>
       </c>
@@ -5783,8 +8236,11 @@
       <c r="C366" s="6">
         <v>30</v>
       </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D366" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
       <c r="A367" s="1" t="s">
         <v>365</v>
       </c>
@@ -5794,8 +8250,11 @@
       <c r="C367" s="6">
         <v>30</v>
       </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D367" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
       <c r="A368" s="1" t="s">
         <v>366</v>
       </c>
@@ -5805,8 +8264,11 @@
       <c r="C368" s="6">
         <v>90</v>
       </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D368" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
       <c r="A369" s="1" t="s">
         <v>367</v>
       </c>
@@ -5816,8 +8278,11 @@
       <c r="C369" s="6">
         <v>60</v>
       </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D369" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
       <c r="A370" s="1" t="s">
         <v>368</v>
       </c>
@@ -5827,8 +8292,11 @@
       <c r="C370" s="6">
         <v>30</v>
       </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D370" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
       <c r="A371" s="1" t="s">
         <v>369</v>
       </c>
@@ -5838,8 +8306,11 @@
       <c r="C371" s="6">
         <v>90</v>
       </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D371" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
       <c r="A372" s="1" t="s">
         <v>370</v>
       </c>
@@ -5849,8 +8320,11 @@
       <c r="C372" s="6">
         <v>60</v>
       </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D372" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
       <c r="A373" s="1" t="s">
         <v>371</v>
       </c>
@@ -5860,8 +8334,11 @@
       <c r="C373" s="6">
         <v>30</v>
       </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D373" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
       <c r="A374" s="1" t="s">
         <v>372</v>
       </c>
@@ -5871,8 +8348,11 @@
       <c r="C374" s="6">
         <v>60</v>
       </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D374" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
       <c r="A375" s="1" t="s">
         <v>373</v>
       </c>
@@ -5882,8 +8362,11 @@
       <c r="C375" s="6">
         <v>30</v>
       </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D375" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
       <c r="A376" s="1" t="s">
         <v>374</v>
       </c>
@@ -5893,8 +8376,11 @@
       <c r="C376" s="6">
         <v>30</v>
       </c>
-    </row>
-    <row r="377" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D376" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" s="5" customFormat="1">
       <c r="A377" s="1" t="s">
         <v>375</v>
       </c>
@@ -5904,8 +8390,11 @@
       <c r="C377" s="6">
         <v>30</v>
       </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D377" s="5" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
       <c r="A378" s="1" t="s">
         <v>376</v>
       </c>
@@ -5915,8 +8404,11 @@
       <c r="C378" s="6">
         <v>30</v>
       </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D378" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
       <c r="A379" s="1" t="s">
         <v>377</v>
       </c>
@@ -5926,8 +8418,11 @@
       <c r="C379" s="6">
         <v>90</v>
       </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D379" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
       <c r="A380" s="1" t="s">
         <v>378</v>
       </c>
@@ -5937,8 +8432,11 @@
       <c r="C380" s="6">
         <v>90</v>
       </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D380" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
       <c r="A381" s="1" t="s">
         <v>379</v>
       </c>
@@ -5948,8 +8446,11 @@
       <c r="C381" s="6">
         <v>94.5</v>
       </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D381" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
       <c r="A382" s="1" t="s">
         <v>380</v>
       </c>
@@ -5959,8 +8460,11 @@
       <c r="C382" s="6">
         <v>30</v>
       </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D382" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
       <c r="A383" s="1" t="s">
         <v>381</v>
       </c>
@@ -5970,8 +8474,11 @@
       <c r="C383" s="6">
         <v>30.5</v>
       </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D383" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
       <c r="A384" s="1" t="s">
         <v>382</v>
       </c>
@@ -5981,8 +8488,11 @@
       <c r="C384" s="6">
         <v>28</v>
       </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D384" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
       <c r="A385" s="1" t="s">
         <v>383</v>
       </c>
@@ -5992,8 +8502,11 @@
       <c r="C385" s="6">
         <v>28</v>
       </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D385" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
       <c r="A386" s="1" t="s">
         <v>384</v>
       </c>
@@ -6003,8 +8516,11 @@
       <c r="C386" s="6">
         <v>56</v>
       </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D386" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
       <c r="A387" s="1" t="s">
         <v>385</v>
       </c>
@@ -6014,8 +8530,11 @@
       <c r="C387" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D387" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
       <c r="A388" s="1" t="s">
         <v>386</v>
       </c>
@@ -6025,8 +8544,11 @@
       <c r="C388" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D388" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
       <c r="A389" s="1" t="s">
         <v>387</v>
       </c>
@@ -6036,8 +8558,11 @@
       <c r="C389" s="6">
         <v>112</v>
       </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D389" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
       <c r="A390" s="1" t="s">
         <v>388</v>
       </c>
@@ -6047,8 +8572,11 @@
       <c r="C390" s="6">
         <v>61</v>
       </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D390" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
       <c r="A391" s="1" t="s">
         <v>389</v>
       </c>
@@ -6058,8 +8586,11 @@
       <c r="C391" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D391" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
       <c r="A392" s="1" t="s">
         <v>390</v>
       </c>
@@ -6069,8 +8600,11 @@
       <c r="C392" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D392" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
       <c r="A393" s="1" t="s">
         <v>391</v>
       </c>
@@ -6080,8 +8614,11 @@
       <c r="C393" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D393" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
       <c r="A394" s="1" t="s">
         <v>392</v>
       </c>
@@ -6091,8 +8628,11 @@
       <c r="C394" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D394" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4">
       <c r="A395" s="1" t="s">
         <v>393</v>
       </c>
@@ -6102,8 +8642,11 @@
       <c r="C395" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D395" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
       <c r="A396" s="1" t="s">
         <v>394</v>
       </c>
@@ -6113,8 +8656,11 @@
       <c r="C396" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D396" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4">
       <c r="A397" s="1" t="s">
         <v>395</v>
       </c>
@@ -6124,8 +8670,11 @@
       <c r="C397" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D397" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4">
       <c r="A398" s="1" t="s">
         <v>396</v>
       </c>
@@ -6135,8 +8684,11 @@
       <c r="C398" s="6">
         <v>108</v>
       </c>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D398" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4">
       <c r="A399" s="1" t="s">
         <v>397</v>
       </c>
@@ -6146,8 +8698,11 @@
       <c r="C399" s="6">
         <v>72</v>
       </c>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D399" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4">
       <c r="A400" s="1" t="s">
         <v>398</v>
       </c>
@@ -6157,8 +8712,11 @@
       <c r="C400" s="6">
         <v>100</v>
       </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D400" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4">
       <c r="A401" s="1" t="s">
         <v>399</v>
       </c>
@@ -6168,8 +8726,11 @@
       <c r="C401" s="6">
         <v>70</v>
       </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D401" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4">
       <c r="A402" s="1" t="s">
         <v>400</v>
       </c>
@@ -6179,8 +8740,11 @@
       <c r="C402" s="6">
         <v>387</v>
       </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D402" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4">
       <c r="A403" s="1" t="s">
         <v>401</v>
       </c>
@@ -6190,8 +8754,11 @@
       <c r="C403" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D403" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4">
       <c r="A404" s="1" t="s">
         <v>402</v>
       </c>
@@ -6201,8 +8768,11 @@
       <c r="C404" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D404" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4">
       <c r="A405" s="1" t="s">
         <v>403</v>
       </c>
@@ -6212,8 +8782,11 @@
       <c r="C405" s="6">
         <v>60</v>
       </c>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D405" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4">
       <c r="A406" s="1" t="s">
         <v>404</v>
       </c>
@@ -6223,8 +8796,11 @@
       <c r="C406" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D406" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4">
       <c r="A407" s="1" t="s">
         <v>405</v>
       </c>
@@ -6234,8 +8810,11 @@
       <c r="C407" s="6">
         <v>331.5</v>
       </c>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D407" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4">
       <c r="A408" s="1" t="s">
         <v>406</v>
       </c>
@@ -6245,8 +8824,11 @@
       <c r="C408" s="6">
         <v>293.7</v>
       </c>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D408" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4">
       <c r="A409" s="1" t="s">
         <v>408</v>
       </c>
@@ -6256,8 +8838,11 @@
       <c r="C409" s="6">
         <v>240</v>
       </c>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D409" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4">
       <c r="A410" s="1" t="s">
         <v>409</v>
       </c>
@@ -6267,8 +8852,11 @@
       <c r="C410" s="6">
         <v>178</v>
       </c>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D410" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4">
       <c r="A411" s="1" t="s">
         <v>410</v>
       </c>
@@ -6278,8 +8866,11 @@
       <c r="C411" s="6">
         <v>178</v>
       </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D411" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
       <c r="A412" s="1" t="s">
         <v>411</v>
       </c>
@@ -6289,8 +8880,11 @@
       <c r="C412" s="6">
         <v>594</v>
       </c>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D412" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
       <c r="A413" s="1" t="s">
         <v>412</v>
       </c>
@@ -6300,8 +8894,11 @@
       <c r="C413" s="6">
         <v>973</v>
       </c>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D413" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4">
       <c r="A414" s="1" t="s">
         <v>413</v>
       </c>
@@ -6311,8 +8908,11 @@
       <c r="C414" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D414" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4">
       <c r="A415" s="1" t="s">
         <v>414</v>
       </c>
@@ -6322,8 +8922,11 @@
       <c r="C415" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D415" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4">
       <c r="A416" s="1" t="s">
         <v>415</v>
       </c>
@@ -6333,8 +8936,11 @@
       <c r="C416" s="6">
         <v>272</v>
       </c>
-    </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D416" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
       <c r="A417" s="1" t="s">
         <v>416</v>
       </c>
@@ -6344,8 +8950,11 @@
       <c r="C417" s="6">
         <v>240</v>
       </c>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D417" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
       <c r="A418" s="1" t="s">
         <v>417</v>
       </c>
@@ -6355,8 +8964,11 @@
       <c r="C418" s="6">
         <v>318</v>
       </c>
-    </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D418" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4">
       <c r="A419" s="1" t="s">
         <v>418</v>
       </c>
@@ -6366,8 +8978,11 @@
       <c r="C419" s="6">
         <v>735</v>
       </c>
-    </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D419" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4">
       <c r="A420" s="1" t="s">
         <v>419</v>
       </c>
@@ -6377,8 +8992,11 @@
       <c r="C420" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D420" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
       <c r="A421" s="1" t="s">
         <v>420</v>
       </c>
@@ -6388,8 +9006,11 @@
       <c r="C421" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D421" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
       <c r="A422" s="1" t="s">
         <v>421</v>
       </c>
@@ -6399,8 +9020,11 @@
       <c r="C422" s="6">
         <v>202</v>
       </c>
-    </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D422" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4">
       <c r="A423" s="1" t="s">
         <v>422</v>
       </c>
@@ -6410,8 +9034,11 @@
       <c r="C423" s="6">
         <v>567</v>
       </c>
-    </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D423" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
       <c r="A424" s="1" t="s">
         <v>423</v>
       </c>
@@ -6421,8 +9048,11 @@
       <c r="C424" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D424" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
       <c r="A425" s="1" t="s">
         <v>424</v>
       </c>
@@ -6432,8 +9062,11 @@
       <c r="C425" s="6">
         <v>170</v>
       </c>
-    </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D425" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4">
       <c r="A426" s="1" t="s">
         <v>425</v>
       </c>
@@ -6443,8 +9076,11 @@
       <c r="C426" s="6">
         <v>170</v>
       </c>
-    </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D426" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4">
       <c r="A427" s="1" t="s">
         <v>426</v>
       </c>
@@ -6454,8 +9090,11 @@
       <c r="C427" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D427" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4">
       <c r="A428" s="1" t="s">
         <v>427</v>
       </c>
@@ -6465,8 +9104,11 @@
       <c r="C428" s="6">
         <v>43</v>
       </c>
-    </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D428" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4">
       <c r="A429" s="1" t="s">
         <v>428</v>
       </c>
@@ -6476,8 +9118,11 @@
       <c r="C429" s="6">
         <v>43</v>
       </c>
-    </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D429" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4">
       <c r="A430" s="1" t="s">
         <v>429</v>
       </c>
@@ -6487,8 +9132,11 @@
       <c r="C430" s="6">
         <v>129</v>
       </c>
-    </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D430" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4">
       <c r="A431" s="1" t="s">
         <v>430</v>
       </c>
@@ -6498,8 +9146,11 @@
       <c r="C431" s="6">
         <v>86</v>
       </c>
-    </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D431" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4">
       <c r="A432" s="1" t="s">
         <v>431</v>
       </c>
@@ -6509,8 +9160,11 @@
       <c r="C432" s="6">
         <v>45</v>
       </c>
-    </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D432" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4">
       <c r="A433" s="1" t="s">
         <v>432</v>
       </c>
@@ -6520,8 +9174,11 @@
       <c r="C433" s="6">
         <v>156</v>
       </c>
-    </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D433" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4">
       <c r="A434" s="1" t="s">
         <v>433</v>
       </c>
@@ -6531,8 +9188,11 @@
       <c r="C434" s="6">
         <v>66</v>
       </c>
-    </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D434" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4">
       <c r="A435" s="1" t="s">
         <v>434</v>
       </c>
@@ -6542,8 +9202,11 @@
       <c r="C435" s="6">
         <v>31</v>
       </c>
-    </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D435" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4">
       <c r="A436" s="1" t="s">
         <v>435</v>
       </c>
@@ -6553,8 +9216,11 @@
       <c r="C436" s="6">
         <v>31</v>
       </c>
-    </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D436" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4">
       <c r="A437" s="1" t="s">
         <v>436</v>
       </c>
@@ -6564,8 +9230,11 @@
       <c r="C437" s="6">
         <v>160</v>
       </c>
-    </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D437" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4">
       <c r="A438" s="1" t="s">
         <v>437</v>
       </c>
@@ -6575,8 +9244,11 @@
       <c r="C438" s="6">
         <v>43</v>
       </c>
-    </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D438" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4">
       <c r="A439" s="1" t="s">
         <v>438</v>
       </c>
@@ -6586,8 +9258,11 @@
       <c r="C439" s="6">
         <v>86</v>
       </c>
-    </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D439" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4">
       <c r="A440" s="1" t="s">
         <v>439</v>
       </c>
@@ -6597,8 +9272,11 @@
       <c r="C440" s="6">
         <v>172</v>
       </c>
-    </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D440" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4">
       <c r="A441" s="1" t="s">
         <v>440</v>
       </c>
@@ -6608,8 +9286,11 @@
       <c r="C441" s="6">
         <v>92</v>
       </c>
-    </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D441" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4">
       <c r="A442" s="1" t="s">
         <v>441</v>
       </c>
@@ -6619,8 +9300,11 @@
       <c r="C442" s="6">
         <v>46</v>
       </c>
-    </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D442" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4">
       <c r="A443" s="1" t="s">
         <v>442</v>
       </c>
@@ -6630,8 +9314,11 @@
       <c r="C443" s="6">
         <v>92</v>
       </c>
-    </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D443" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4">
       <c r="A444" s="1" t="s">
         <v>443</v>
       </c>
@@ -6641,8 +9328,11 @@
       <c r="C444" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D444" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4">
       <c r="A445" s="1" t="s">
         <v>444</v>
       </c>
@@ -6652,8 +9342,11 @@
       <c r="C445" s="6">
         <v>92</v>
       </c>
-    </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D445" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4">
       <c r="A446" s="1" t="s">
         <v>445</v>
       </c>
@@ -6663,8 +9356,11 @@
       <c r="C446" s="6">
         <v>92</v>
       </c>
-    </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D446" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4">
       <c r="A447" s="1" t="s">
         <v>446</v>
       </c>
@@ -6674,8 +9370,11 @@
       <c r="C447" s="6">
         <v>46</v>
       </c>
-    </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D447" s="5" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4">
       <c r="A448" s="1" t="s">
         <v>447</v>
       </c>
@@ -6685,8 +9384,11 @@
       <c r="C448" s="6">
         <v>92</v>
       </c>
-    </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D448" s="5" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4">
       <c r="A449" s="1" t="s">
         <v>448</v>
       </c>
@@ -6696,8 +9398,11 @@
       <c r="C449" s="6">
         <v>46</v>
       </c>
-    </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D449" s="5" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4">
       <c r="A450" s="1" t="s">
         <v>449</v>
       </c>
@@ -6707,8 +9412,11 @@
       <c r="C450" s="6">
         <v>46</v>
       </c>
-    </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D450" s="5" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4">
       <c r="A451" s="1" t="s">
         <v>450</v>
       </c>
@@ -6718,8 +9426,11 @@
       <c r="C451" s="6">
         <v>46</v>
       </c>
-    </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D451" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4">
       <c r="A452" s="1" t="s">
         <v>451</v>
       </c>
@@ -6729,8 +9440,11 @@
       <c r="C452" s="6">
         <v>228</v>
       </c>
-    </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D452" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4">
       <c r="A453" s="1" t="s">
         <v>452</v>
       </c>
@@ -6740,8 +9454,11 @@
       <c r="C453" s="6">
         <v>76</v>
       </c>
-    </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D453" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4">
       <c r="A454" s="1" t="s">
         <v>453</v>
       </c>
@@ -6751,8 +9468,11 @@
       <c r="C454" s="6">
         <v>144</v>
       </c>
-    </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D454" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4">
       <c r="A455" s="1" t="s">
         <v>454</v>
       </c>
@@ -6762,8 +9482,11 @@
       <c r="C455" s="6">
         <v>72</v>
       </c>
-    </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D455" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4">
       <c r="A456" s="1" t="s">
         <v>455</v>
       </c>
@@ -6773,8 +9496,11 @@
       <c r="C456" s="6">
         <v>144</v>
       </c>
-    </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D456" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4">
       <c r="A457" s="1" t="s">
         <v>456</v>
       </c>
@@ -6784,8 +9510,11 @@
       <c r="C457" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D457" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4">
       <c r="A458" s="1" t="s">
         <v>457</v>
       </c>
@@ -6795,8 +9524,11 @@
       <c r="C458" s="6">
         <v>150</v>
       </c>
-    </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D458" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4">
       <c r="A459" s="1" t="s">
         <v>458</v>
       </c>
@@ -6806,8 +9538,11 @@
       <c r="C459" s="6">
         <v>86</v>
       </c>
-    </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D459" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4">
       <c r="A460" s="1" t="s">
         <v>459</v>
       </c>
@@ -6817,8 +9552,11 @@
       <c r="C460" s="6">
         <v>135</v>
       </c>
-    </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D460" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4">
       <c r="A461" s="1" t="s">
         <v>460</v>
       </c>
@@ -6828,8 +9566,11 @@
       <c r="C461" s="6">
         <v>506</v>
       </c>
-    </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D461" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4">
       <c r="A462" s="1" t="s">
         <v>461</v>
       </c>
@@ -6839,8 +9580,11 @@
       <c r="C462" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D462" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4">
       <c r="A463" s="1" t="s">
         <v>462</v>
       </c>
@@ -6850,8 +9594,11 @@
       <c r="C463" s="6">
         <v>135</v>
       </c>
-    </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D463" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4">
       <c r="B464" s="7"/>
       <c r="C464" s="7"/>
     </row>
